--- a/Completed Projects/Dolmen City Family Area/BOQ/Verified bill No 1/MEP Running Bill No 1 (Family Area) 07082024.XLSX
+++ b/Completed Projects/Dolmen City Family Area/BOQ/Verified bill No 1/MEP Running Bill No 1 (Family Area) 07082024.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project Management Folder\Danish\Mothers Room\1st Running Bill\Approved  MEP Bill &amp; V.O's\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Completed Projects\Dolmen City Family Area\BOQ\Verified bill No 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D40AD-BFAF-4A39-B8B3-672A69E95B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-1035" yWindow="1035" windowWidth="15330" windowHeight="10890" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMM" sheetId="32" r:id="rId1"/>
@@ -1891,7 +1892,7 @@
     <definedName name="부대공사" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="부대공사" hidden="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -2838,7 +2839,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2848,7 +2849,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="#,##0.0;[Red]\-#,##0.0"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -3211,7 +3212,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3250,6 +3251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4352,7 +4359,7 @@
     <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="552">
+  <cellXfs count="554">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5753,6 +5760,72 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="76" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="57" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="57" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="2" borderId="80" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="2" borderId="35" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="0" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="15" fillId="2" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5762,15 +5835,6 @@
     <xf numFmtId="38" fontId="15" fillId="2" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="13" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="14" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="0" borderId="15" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="15" fillId="2" borderId="72" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -5789,61 +5853,31 @@
     <xf numFmtId="38" fontId="15" fillId="0" borderId="36" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="72" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="76" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="57" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="57" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="50" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="2" borderId="80" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="2" borderId="0" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="15" fillId="2" borderId="35" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="80" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5852,38 +5886,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="72" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="76" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="41" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="42" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="45" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="72" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="49" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="47" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="76" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="55" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="55" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="54" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="13" fillId="0" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="40" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5930,136 +6015,64 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="44" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="54" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="55" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="44" xfId="8" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="55" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="54" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="13" fillId="0" borderId="53" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="13" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="13" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="77" xfId="40" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="41" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="42" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="45" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="28" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="49" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="47" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0] 2" xfId="2"/>
-    <cellStyle name="Comma [0] 3" xfId="34"/>
-    <cellStyle name="Comma [0] 3 2" xfId="39"/>
-    <cellStyle name="Comma [0] 4" xfId="43"/>
-    <cellStyle name="Comma 10" xfId="35"/>
-    <cellStyle name="Comma 12" xfId="36"/>
-    <cellStyle name="Comma 16" xfId="18"/>
-    <cellStyle name="Comma 19" xfId="38"/>
-    <cellStyle name="Comma 2" xfId="3"/>
-    <cellStyle name="Comma 2 2" xfId="4"/>
-    <cellStyle name="Comma 2 2 2" xfId="21"/>
-    <cellStyle name="Comma 2 3" xfId="46"/>
-    <cellStyle name="Comma 3" xfId="5"/>
-    <cellStyle name="Comma 3 2 2" xfId="29"/>
-    <cellStyle name="Comma 4" xfId="25"/>
-    <cellStyle name="Comma 5" xfId="24"/>
-    <cellStyle name="Comma 6" xfId="6"/>
-    <cellStyle name="Comma 7" xfId="45"/>
-    <cellStyle name="Description" xfId="7"/>
-    <cellStyle name="Description 2" xfId="8"/>
-    <cellStyle name="Excel Built-in Normal" xfId="23"/>
-    <cellStyle name="Heading1" xfId="9"/>
-    <cellStyle name="Heading1 1" xfId="10"/>
-    <cellStyle name="Heading1 2" xfId="41"/>
+    <cellStyle name="Comma [0] 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma [0] 3 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma [0] 4" xfId="43" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma 10" xfId="35" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 12" xfId="36" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 16" xfId="18" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 19" xfId="38" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Comma 3" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Comma 4" xfId="25" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Comma 5" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Comma 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Comma 7" xfId="45" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Description" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Description 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Heading1" xfId="9" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Heading1 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Heading1 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
-    <cellStyle name="List Number 1" xfId="11"/>
+    <cellStyle name="List Number 1" xfId="11" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 11 3" xfId="16"/>
-    <cellStyle name="Normal 13" xfId="19"/>
-    <cellStyle name="Normal 13 3" xfId="32"/>
-    <cellStyle name="Normal 16" xfId="17"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 2 2" xfId="31"/>
-    <cellStyle name="Normal 2 3" xfId="47"/>
-    <cellStyle name="Normal 21 16" xfId="27"/>
-    <cellStyle name="Normal 21 2 3 2 2" xfId="26"/>
-    <cellStyle name="Normal 21 6 2 2" xfId="28"/>
-    <cellStyle name="Normal 3" xfId="22"/>
-    <cellStyle name="Normal 3 2" xfId="30"/>
-    <cellStyle name="Normal 4" xfId="37"/>
-    <cellStyle name="Normal 5" xfId="13"/>
-    <cellStyle name="Normal 6" xfId="40"/>
-    <cellStyle name="Normal 7" xfId="44"/>
-    <cellStyle name="Normal_Sheet1 2" xfId="33"/>
+    <cellStyle name="Normal 11 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 13" xfId="19" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 13 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 16" xfId="17" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 21 16" xfId="27" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 21 2 3 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 21 6 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 3" xfId="22" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 5" xfId="13" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 6" xfId="40" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 7" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="20"/>
-    <cellStyle name="Qty Unit" xfId="14"/>
-    <cellStyle name="Qty Unit 2" xfId="42"/>
-    <cellStyle name="Section1" xfId="15"/>
+    <cellStyle name="Percent 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Qty Unit" xfId="14" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Qty Unit 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Section1" xfId="15" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6146,7 +6159,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1.1.2 Strat"/>
@@ -12889,7 +12902,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="산근"/>
@@ -12910,7 +12923,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Normal Basis"/>
@@ -13305,7 +13318,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Section 26 05 00"/>
@@ -13350,7 +13363,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="boq-civil"/>
@@ -13387,7 +13400,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Block - A"/>
@@ -13400,7 +13413,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RCC PIPES ANALYSIS"/>
@@ -13543,7 +13556,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SELLING PRICE ANALYSIS"/>
@@ -13599,7 +13612,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="URA"/>
@@ -13640,7 +13653,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -13701,7 +13714,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="K DRYWALL-Villa B"/>
@@ -13728,7 +13741,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="bid"/>
@@ -13749,7 +13762,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BOQ (2)"/>
@@ -13806,7 +13819,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Section 16010"/>
@@ -14189,7 +14202,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="산근"/>
@@ -14208,7 +14221,26 @@
 </file>
 
 <file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="SUMMARY"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="13">
+          <cell r="E13">
+            <v>1473194.19</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Table 1"/>
@@ -14236,27 +14268,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SUMMARY"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="13">
-          <cell r="E13">
-            <v>1473194.19</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="boq"/>
@@ -14285,7 +14298,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="산근"/>
@@ -18586,7 +18599,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="SUM"/>
@@ -18613,7 +18626,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover"/>
@@ -20246,7 +20259,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="frontsheet"/>
@@ -20404,7 +20417,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Qty"/>
@@ -20423,7 +20436,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Section 26 05 00"/>
@@ -20516,9 +20529,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20556,9 +20569,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20593,7 +20606,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -20628,7 +20641,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20801,17 +20814,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="64.5703125" style="1" customWidth="1"/>
@@ -20827,7 +20840,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="465" t="s">
         <v>75</v>
       </c>
@@ -20838,7 +20851,7 @@
       <c r="F1" s="271"/>
       <c r="H1" s="275"/>
     </row>
-    <row r="2" spans="1:12" ht="9.75" customHeight="1">
+    <row r="2" spans="1:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="271"/>
       <c r="B2" s="271"/>
       <c r="C2" s="271"/>
@@ -20847,7 +20860,7 @@
       <c r="F2" s="271"/>
       <c r="H2" s="275"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75">
+    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="466" t="s">
         <v>284</v>
       </c>
@@ -20857,7 +20870,7 @@
       <c r="E3" s="466"/>
       <c r="F3" s="252"/>
     </row>
-    <row r="4" spans="1:12" ht="19.5" customHeight="1">
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="463"/>
       <c r="B4" s="464"/>
       <c r="C4" s="259"/>
@@ -20867,7 +20880,7 @@
       </c>
       <c r="F4" s="253"/>
     </row>
-    <row r="5" spans="1:12" ht="27.75" customHeight="1">
+    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="282" t="s">
         <v>261</v>
       </c>
@@ -20885,7 +20898,7 @@
       </c>
       <c r="F5" s="272"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="254"/>
       <c r="B6" s="255"/>
       <c r="C6" s="255"/>
@@ -20893,7 +20906,7 @@
       <c r="E6" s="256"/>
       <c r="F6" s="269"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="249">
         <v>1</v>
       </c>
@@ -20908,7 +20921,7 @@
       </c>
       <c r="F7" s="270"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="248"/>
       <c r="B8" s="258"/>
       <c r="C8" s="258"/>
@@ -20916,7 +20929,7 @@
       <c r="E8" s="250"/>
       <c r="F8" s="269"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="249">
         <v>2</v>
       </c>
@@ -20931,7 +20944,7 @@
       </c>
       <c r="F9" s="270"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="248"/>
       <c r="B10" s="258"/>
       <c r="C10" s="258"/>
@@ -20939,7 +20952,7 @@
       <c r="E10" s="251"/>
       <c r="F10" s="270"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="249">
         <v>3</v>
       </c>
@@ -20954,7 +20967,7 @@
       </c>
       <c r="F11" s="270"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="249"/>
       <c r="B12" s="257"/>
       <c r="C12" s="261"/>
@@ -20962,7 +20975,7 @@
       <c r="E12" s="251"/>
       <c r="F12" s="270"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="249">
         <v>4</v>
       </c>
@@ -20972,7 +20985,7 @@
       <c r="C13" s="261"/>
       <c r="D13" s="261"/>
       <c r="E13" s="377">
-        <f>[24]SUMMARY!$E$13</f>
+        <f>[23]SUMMARY!$E$13</f>
         <v>1473194.19</v>
       </c>
       <c r="F13" s="270"/>
@@ -20994,7 +21007,7 @@
         <v>1473195</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="248"/>
       <c r="B14" s="258"/>
       <c r="C14" s="258"/>
@@ -21002,7 +21015,7 @@
       <c r="E14" s="251"/>
       <c r="F14" s="270"/>
     </row>
-    <row r="15" spans="1:12" s="266" customFormat="1" ht="20.25" thickBot="1">
+    <row r="15" spans="1:12" s="266" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="262"/>
       <c r="B15" s="263" t="s">
         <v>267</v>
@@ -21015,7 +21028,7 @@
       </c>
       <c r="F15" s="273"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E16" s="274"/>
     </row>
   </sheetData>
@@ -21035,17 +21048,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S87"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A65" zoomScale="90" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="E66" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.28515625" style="50" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="23" customWidth="1"/>
@@ -21062,7 +21075,7 @@
     <col min="14" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="15">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -21077,7 +21090,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" ht="15">
+    <row r="2" spans="1:19" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -21089,7 +21102,7 @@
       <c r="L2" s="10"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -21099,7 +21112,7 @@
       <c r="L3" s="10"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" ht="6.95" customHeight="1">
+    <row r="4" spans="1:19" s="8" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="E4" s="276"/>
       <c r="F4" s="276"/>
@@ -21111,67 +21124,67 @@
       <c r="L4" s="10"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="483" t="s">
+    <row r="5" spans="1:19" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="484" t="s">
+      <c r="B5" s="472" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="484"/>
-      <c r="D5" s="484"/>
-      <c r="E5" s="485" t="s">
+      <c r="C5" s="472"/>
+      <c r="D5" s="472"/>
+      <c r="E5" s="473" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="485"/>
-      <c r="I5" s="486" t="s">
+      <c r="F5" s="473"/>
+      <c r="G5" s="473"/>
+      <c r="H5" s="473"/>
+      <c r="I5" s="474" t="s">
         <v>272</v>
       </c>
-      <c r="J5" s="487"/>
-      <c r="K5" s="487"/>
-      <c r="L5" s="487"/>
-      <c r="M5" s="488"/>
-    </row>
-    <row r="6" spans="1:19" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="483"/>
-      <c r="B6" s="484"/>
-      <c r="C6" s="484"/>
-      <c r="D6" s="484"/>
-      <c r="E6" s="491" t="s">
+      <c r="J5" s="475"/>
+      <c r="K5" s="475"/>
+      <c r="L5" s="475"/>
+      <c r="M5" s="476"/>
+    </row>
+    <row r="6" spans="1:19" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="471"/>
+      <c r="B6" s="472"/>
+      <c r="C6" s="472"/>
+      <c r="D6" s="472"/>
+      <c r="E6" s="479" t="s">
         <v>269</v>
       </c>
-      <c r="F6" s="493" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="491" t="s">
+      <c r="F6" s="481" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="479" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="491" t="s">
+      <c r="H6" s="479" t="s">
         <v>271</v>
       </c>
-      <c r="I6" s="486" t="s">
+      <c r="I6" s="474" t="s">
         <v>265</v>
       </c>
-      <c r="J6" s="488"/>
-      <c r="K6" s="486" t="s">
+      <c r="J6" s="476"/>
+      <c r="K6" s="474" t="s">
         <v>266</v>
       </c>
-      <c r="L6" s="488"/>
-      <c r="M6" s="489" t="s">
+      <c r="L6" s="476"/>
+      <c r="M6" s="477" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="483"/>
-      <c r="B7" s="484"/>
-      <c r="C7" s="484"/>
-      <c r="D7" s="484"/>
-      <c r="E7" s="492"/>
-      <c r="F7" s="494"/>
-      <c r="G7" s="492"/>
-      <c r="H7" s="492"/>
+    <row r="7" spans="1:19" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="471"/>
+      <c r="B7" s="472"/>
+      <c r="C7" s="472"/>
+      <c r="D7" s="472"/>
+      <c r="E7" s="480"/>
+      <c r="F7" s="482"/>
+      <c r="G7" s="480"/>
+      <c r="H7" s="480"/>
       <c r="I7" s="318" t="s">
         <v>273</v>
       </c>
@@ -21184,9 +21197,9 @@
       <c r="L7" s="281" t="s">
         <v>268</v>
       </c>
-      <c r="M7" s="490"/>
-    </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="M7" s="478"/>
+    </row>
+    <row r="8" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="277">
         <v>1</v>
       </c>
@@ -21205,7 +21218,7 @@
       <c r="L8" s="60"/>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:19" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:19" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73">
         <v>1.1000000000000001</v>
       </c>
@@ -21224,7 +21237,7 @@
       <c r="L9" s="26"/>
       <c r="M9" s="77"/>
     </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>76</v>
       </c>
@@ -21268,7 +21281,7 @@
       <c r="O10" s="115"/>
       <c r="P10" s="115"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>77</v>
       </c>
@@ -21315,7 +21328,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>78</v>
       </c>
@@ -21362,15 +21375,15 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A13" s="470" t="s">
+    <row r="13" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="471"/>
-      <c r="C13" s="471"/>
-      <c r="D13" s="471"/>
-      <c r="E13" s="471"/>
-      <c r="F13" s="472"/>
+      <c r="B13" s="487"/>
+      <c r="C13" s="487"/>
+      <c r="D13" s="487"/>
+      <c r="E13" s="487"/>
+      <c r="F13" s="488"/>
       <c r="G13" s="309"/>
       <c r="H13" s="309"/>
       <c r="I13" s="380"/>
@@ -21388,7 +21401,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>2</v>
       </c>
@@ -21413,7 +21426,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:19" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31">
         <v>2.1</v>
       </c>
@@ -21434,8 +21447,8 @@
       <c r="H15" s="92">
         <v>900</v>
       </c>
-      <c r="I15" s="382">
-        <f>'[23]Table 1'!$J$110</f>
+      <c r="I15" s="552">
+        <f>'[24]Table 1'!$J$110</f>
         <v>109.50049999999999</v>
       </c>
       <c r="J15" s="320">
@@ -21458,7 +21471,7 @@
       <c r="O15" s="115"/>
       <c r="P15" s="115"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -21479,8 +21492,8 @@
       <c r="H16" s="92">
         <v>900</v>
       </c>
-      <c r="I16" s="382">
-        <f>'[23]Table 1'!$J$124+0.16512</f>
+      <c r="I16" s="552">
+        <f>'[24]Table 1'!$J$124+0.16512</f>
         <v>15.999920000000001</v>
       </c>
       <c r="J16" s="92">
@@ -21503,7 +21516,7 @@
       <c r="O16" s="115"/>
       <c r="P16" s="115"/>
     </row>
-    <row r="17" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="383">
         <v>2.2999999999999998</v>
       </c>
@@ -21524,8 +21537,8 @@
       <c r="H17" s="320">
         <v>900</v>
       </c>
-      <c r="I17" s="382">
-        <f>'[23]Table 1'!$J$159</f>
+      <c r="I17" s="552">
+        <f>'[24]Table 1'!$J$159</f>
         <v>20.151499999999999</v>
       </c>
       <c r="J17" s="320">
@@ -21548,7 +21561,7 @@
       <c r="O17" s="339"/>
       <c r="P17" s="339"/>
     </row>
-    <row r="18" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="383">
         <v>2.4</v>
       </c>
@@ -21592,7 +21605,7 @@
       <c r="O18" s="339"/>
       <c r="P18" s="339"/>
     </row>
-    <row r="19" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="383">
         <v>2.5</v>
       </c>
@@ -21636,7 +21649,7 @@
       <c r="O19" s="339"/>
       <c r="P19" s="339"/>
     </row>
-    <row r="20" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="383">
         <v>2.6</v>
       </c>
@@ -21662,7 +21675,7 @@
       <c r="O20" s="339"/>
       <c r="P20" s="339"/>
     </row>
-    <row r="21" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="383">
         <v>2.7</v>
       </c>
@@ -21706,7 +21719,7 @@
       <c r="O21" s="339"/>
       <c r="P21" s="339"/>
     </row>
-    <row r="22" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="22" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="383">
         <v>2.8</v>
       </c>
@@ -21750,15 +21763,15 @@
       <c r="O22" s="339"/>
       <c r="P22" s="339"/>
     </row>
-    <row r="23" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="467" t="s">
+    <row r="23" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="489" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="468"/>
-      <c r="C23" s="468"/>
-      <c r="D23" s="468"/>
-      <c r="E23" s="468"/>
-      <c r="F23" s="469"/>
+      <c r="B23" s="490"/>
+      <c r="C23" s="490"/>
+      <c r="D23" s="490"/>
+      <c r="E23" s="490"/>
+      <c r="F23" s="491"/>
       <c r="G23" s="389"/>
       <c r="H23" s="389"/>
       <c r="I23" s="380"/>
@@ -21773,7 +21786,7 @@
       <c r="O23" s="339"/>
       <c r="P23" s="339"/>
     </row>
-    <row r="24" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="391">
         <v>3</v>
       </c>
@@ -21795,7 +21808,7 @@
       <c r="O24" s="339"/>
       <c r="P24" s="339"/>
     </row>
-    <row r="25" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="383">
         <v>3.1</v>
       </c>
@@ -21839,7 +21852,7 @@
       <c r="O25" s="339"/>
       <c r="P25" s="339"/>
     </row>
-    <row r="26" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="26" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="383">
         <v>3.2</v>
       </c>
@@ -21883,15 +21896,15 @@
       <c r="O26" s="339"/>
       <c r="P26" s="339"/>
     </row>
-    <row r="27" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A27" s="467" t="s">
+    <row r="27" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="489" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="468"/>
-      <c r="C27" s="468"/>
-      <c r="D27" s="468"/>
-      <c r="E27" s="468"/>
-      <c r="F27" s="469"/>
+      <c r="B27" s="490"/>
+      <c r="C27" s="490"/>
+      <c r="D27" s="490"/>
+      <c r="E27" s="490"/>
+      <c r="F27" s="491"/>
       <c r="G27" s="389"/>
       <c r="H27" s="389"/>
       <c r="I27" s="380"/>
@@ -21906,7 +21919,7 @@
       <c r="O27" s="339"/>
       <c r="P27" s="339"/>
     </row>
-    <row r="28" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="391">
         <v>4</v>
       </c>
@@ -21928,7 +21941,7 @@
       <c r="O28" s="339"/>
       <c r="P28" s="339"/>
     </row>
-    <row r="29" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:16" s="388" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="383">
         <v>4.0999999999999996</v>
       </c>
@@ -21950,7 +21963,7 @@
       <c r="H29" s="320">
         <v>700</v>
       </c>
-      <c r="I29" s="382">
+      <c r="I29" s="552">
         <f>I15+I16</f>
         <v>125.50041999999999</v>
       </c>
@@ -21974,7 +21987,7 @@
       <c r="O29" s="339"/>
       <c r="P29" s="339"/>
     </row>
-    <row r="30" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37">
         <v>4.2</v>
       </c>
@@ -21996,7 +22009,7 @@
       <c r="H30" s="92">
         <v>600</v>
       </c>
-      <c r="I30" s="382">
+      <c r="I30" s="552">
         <f>I17</f>
         <v>20.151499999999999</v>
       </c>
@@ -22020,15 +22033,15 @@
       <c r="O30" s="115"/>
       <c r="P30" s="115"/>
     </row>
-    <row r="31" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="470" t="s">
+    <row r="31" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="471"/>
-      <c r="C31" s="471"/>
-      <c r="D31" s="471"/>
-      <c r="E31" s="471"/>
-      <c r="F31" s="472"/>
+      <c r="B31" s="487"/>
+      <c r="C31" s="487"/>
+      <c r="D31" s="487"/>
+      <c r="E31" s="487"/>
+      <c r="F31" s="488"/>
       <c r="G31" s="309"/>
       <c r="H31" s="309"/>
       <c r="I31" s="380"/>
@@ -22043,7 +22056,7 @@
       <c r="O31" s="115"/>
       <c r="P31" s="115"/>
     </row>
-    <row r="32" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>5</v>
       </c>
@@ -22065,7 +22078,7 @@
       <c r="O32" s="115"/>
       <c r="P32" s="115"/>
     </row>
-    <row r="33" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="61">
         <v>5.0999999999999996</v>
       </c>
@@ -22087,7 +22100,7 @@
       <c r="O33" s="115"/>
       <c r="P33" s="115"/>
     </row>
-    <row r="34" spans="1:16" ht="15" customHeight="1">
+    <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="62" t="s">
         <v>79</v>
       </c>
@@ -22131,7 +22144,7 @@
       <c r="O34" s="115"/>
       <c r="P34" s="115"/>
     </row>
-    <row r="35" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="62" t="s">
         <v>80</v>
       </c>
@@ -22175,7 +22188,7 @@
       <c r="O35" s="115"/>
       <c r="P35" s="115"/>
     </row>
-    <row r="36" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="s">
         <v>81</v>
       </c>
@@ -22219,7 +22232,7 @@
       <c r="O36" s="115"/>
       <c r="P36" s="115"/>
     </row>
-    <row r="37" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="62" t="s">
         <v>82</v>
       </c>
@@ -22263,7 +22276,7 @@
       <c r="O37" s="115"/>
       <c r="P37" s="115"/>
     </row>
-    <row r="38" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="62" t="s">
         <v>83</v>
       </c>
@@ -22307,7 +22320,7 @@
       <c r="O38" s="115"/>
       <c r="P38" s="115"/>
     </row>
-    <row r="39" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="62" t="s">
         <v>84</v>
       </c>
@@ -22351,7 +22364,7 @@
       <c r="O39" s="115"/>
       <c r="P39" s="115"/>
     </row>
-    <row r="40" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="62" t="s">
         <v>85</v>
       </c>
@@ -22395,7 +22408,7 @@
       <c r="O40" s="115"/>
       <c r="P40" s="115"/>
     </row>
-    <row r="41" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="61">
         <v>5.2</v>
       </c>
@@ -22417,7 +22430,7 @@
       <c r="O41" s="115"/>
       <c r="P41" s="115"/>
     </row>
-    <row r="42" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="62" t="s">
         <v>86</v>
       </c>
@@ -22461,7 +22474,7 @@
       <c r="O42" s="115"/>
       <c r="P42" s="115"/>
     </row>
-    <row r="43" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="62" t="s">
         <v>87</v>
       </c>
@@ -22505,7 +22518,7 @@
       <c r="O43" s="115"/>
       <c r="P43" s="115"/>
     </row>
-    <row r="44" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="62" t="s">
         <v>88</v>
       </c>
@@ -22549,7 +22562,7 @@
       <c r="O44" s="115"/>
       <c r="P44" s="115"/>
     </row>
-    <row r="45" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="61">
         <v>5.3</v>
       </c>
@@ -22571,7 +22584,7 @@
       <c r="O45" s="115"/>
       <c r="P45" s="115"/>
     </row>
-    <row r="46" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="62" t="s">
         <v>89</v>
       </c>
@@ -22613,7 +22626,7 @@
       <c r="O46" s="115"/>
       <c r="P46" s="115"/>
     </row>
-    <row r="47" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="62" t="s">
         <v>90</v>
       </c>
@@ -22655,7 +22668,7 @@
       <c r="O47" s="115"/>
       <c r="P47" s="115"/>
     </row>
-    <row r="48" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="62" t="s">
         <v>91</v>
       </c>
@@ -22697,7 +22710,7 @@
       <c r="O48" s="115"/>
       <c r="P48" s="115"/>
     </row>
-    <row r="49" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="62" t="s">
         <v>92</v>
       </c>
@@ -22739,7 +22752,7 @@
       <c r="O49" s="115"/>
       <c r="P49" s="115"/>
     </row>
-    <row r="50" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="50" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="62" t="s">
         <v>93</v>
       </c>
@@ -22781,7 +22794,7 @@
       <c r="O50" s="115"/>
       <c r="P50" s="115"/>
     </row>
-    <row r="51" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="62" t="s">
         <v>94</v>
       </c>
@@ -22823,7 +22836,7 @@
       <c r="O51" s="115"/>
       <c r="P51" s="115"/>
     </row>
-    <row r="52" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="62" t="s">
         <v>95</v>
       </c>
@@ -22865,7 +22878,7 @@
       <c r="O52" s="115"/>
       <c r="P52" s="115"/>
     </row>
-    <row r="53" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="62" t="s">
         <v>96</v>
       </c>
@@ -22907,7 +22920,7 @@
       <c r="O53" s="115"/>
       <c r="P53" s="115"/>
     </row>
-    <row r="54" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="54" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="61">
         <v>5.4</v>
       </c>
@@ -22929,7 +22942,7 @@
       <c r="O54" s="115"/>
       <c r="P54" s="115"/>
     </row>
-    <row r="55" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="55" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="62" t="s">
         <v>97</v>
       </c>
@@ -22973,15 +22986,15 @@
       <c r="O55" s="115"/>
       <c r="P55" s="115"/>
     </row>
-    <row r="56" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A56" s="470" t="s">
+    <row r="56" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="471"/>
-      <c r="C56" s="471"/>
-      <c r="D56" s="471"/>
-      <c r="E56" s="471"/>
-      <c r="F56" s="472"/>
+      <c r="B56" s="487"/>
+      <c r="C56" s="487"/>
+      <c r="D56" s="487"/>
+      <c r="E56" s="487"/>
+      <c r="F56" s="488"/>
       <c r="G56" s="309"/>
       <c r="H56" s="309"/>
       <c r="I56" s="380"/>
@@ -22996,7 +23009,7 @@
       <c r="O56" s="115"/>
       <c r="P56" s="115"/>
     </row>
-    <row r="57" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
         <v>6</v>
       </c>
@@ -23018,7 +23031,7 @@
       <c r="O57" s="115"/>
       <c r="P57" s="115"/>
     </row>
-    <row r="58" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="55">
         <v>6.1</v>
       </c>
@@ -23062,7 +23075,7 @@
       <c r="O58" s="115"/>
       <c r="P58" s="115"/>
     </row>
-    <row r="59" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="59" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="37">
         <v>6.2</v>
       </c>
@@ -23106,15 +23119,15 @@
       <c r="O59" s="115"/>
       <c r="P59" s="115"/>
     </row>
-    <row r="60" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A60" s="470" t="s">
+    <row r="60" spans="1:16" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="471"/>
-      <c r="C60" s="471"/>
-      <c r="D60" s="471"/>
-      <c r="E60" s="471"/>
-      <c r="F60" s="472"/>
+      <c r="B60" s="487"/>
+      <c r="C60" s="487"/>
+      <c r="D60" s="487"/>
+      <c r="E60" s="487"/>
+      <c r="F60" s="488"/>
       <c r="G60" s="309"/>
       <c r="H60" s="309"/>
       <c r="I60" s="380"/>
@@ -23129,7 +23142,7 @@
       <c r="O60" s="115"/>
       <c r="P60" s="115"/>
     </row>
-    <row r="61" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="64">
         <v>7</v>
       </c>
@@ -23151,7 +23164,7 @@
       <c r="O61" s="115"/>
       <c r="P61" s="115"/>
     </row>
-    <row r="62" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="62" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="31">
         <v>7.1</v>
       </c>
@@ -23195,7 +23208,7 @@
       <c r="O62" s="115"/>
       <c r="P62" s="115"/>
     </row>
-    <row r="63" spans="1:16" s="6" customFormat="1" ht="14.25">
+    <row r="63" spans="1:16" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="31">
         <v>7.2</v>
       </c>
@@ -23237,7 +23250,7 @@
       <c r="O63" s="115"/>
       <c r="P63" s="115"/>
     </row>
-    <row r="64" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="31">
         <v>7.3</v>
       </c>
@@ -23279,7 +23292,7 @@
       <c r="O64" s="115"/>
       <c r="P64" s="115"/>
     </row>
-    <row r="65" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="65" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31">
         <v>7.4</v>
       </c>
@@ -23323,15 +23336,15 @@
       <c r="O65" s="115"/>
       <c r="P65" s="115"/>
     </row>
-    <row r="66" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A66" s="476" t="s">
+    <row r="66" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="495" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="477"/>
-      <c r="C66" s="477"/>
-      <c r="D66" s="477"/>
-      <c r="E66" s="477"/>
-      <c r="F66" s="478"/>
+      <c r="B66" s="496"/>
+      <c r="C66" s="496"/>
+      <c r="D66" s="496"/>
+      <c r="E66" s="496"/>
+      <c r="F66" s="497"/>
       <c r="G66" s="311"/>
       <c r="H66" s="311"/>
       <c r="I66" s="408"/>
@@ -23346,7 +23359,7 @@
       <c r="O66" s="115"/>
       <c r="P66" s="115"/>
     </row>
-    <row r="67" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>8</v>
       </c>
@@ -23368,7 +23381,7 @@
       <c r="O67" s="115"/>
       <c r="P67" s="115"/>
     </row>
-    <row r="68" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="68" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="31">
         <v>8.1</v>
       </c>
@@ -23410,15 +23423,15 @@
       <c r="O68" s="115"/>
       <c r="P68" s="115"/>
     </row>
-    <row r="69" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A69" s="470" t="s">
+    <row r="69" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="471"/>
-      <c r="C69" s="471"/>
-      <c r="D69" s="471"/>
-      <c r="E69" s="471"/>
-      <c r="F69" s="472"/>
+      <c r="B69" s="487"/>
+      <c r="C69" s="487"/>
+      <c r="D69" s="487"/>
+      <c r="E69" s="487"/>
+      <c r="F69" s="488"/>
       <c r="G69" s="309"/>
       <c r="H69" s="309"/>
       <c r="I69" s="380"/>
@@ -23433,7 +23446,7 @@
       <c r="O69" s="115"/>
       <c r="P69" s="115"/>
     </row>
-    <row r="70" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
         <v>9</v>
       </c>
@@ -23455,7 +23468,7 @@
       <c r="O70" s="115"/>
       <c r="P70" s="115"/>
     </row>
-    <row r="71" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>9.1</v>
       </c>
@@ -23499,7 +23512,7 @@
       <c r="O71" s="115"/>
       <c r="P71" s="115"/>
     </row>
-    <row r="72" spans="1:16" ht="15" customHeight="1">
+    <row r="72" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>9.1999999999999993</v>
       </c>
@@ -23541,7 +23554,7 @@
       <c r="O72" s="115"/>
       <c r="P72" s="115"/>
     </row>
-    <row r="73" spans="1:16" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="73" spans="1:16" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="27">
         <v>9.3000000000000007</v>
       </c>
@@ -23562,7 +23575,7 @@
       <c r="H73" s="92">
         <v>15000</v>
       </c>
-      <c r="I73" s="320">
+      <c r="I73" s="553">
         <v>0</v>
       </c>
       <c r="J73" s="320">
@@ -23585,15 +23598,15 @@
       <c r="O73" s="115"/>
       <c r="P73" s="115"/>
     </row>
-    <row r="74" spans="1:16" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A74" s="470" t="s">
+    <row r="74" spans="1:16" s="43" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="486" t="s">
         <v>13</v>
       </c>
-      <c r="B74" s="471"/>
-      <c r="C74" s="471"/>
-      <c r="D74" s="471"/>
-      <c r="E74" s="471"/>
-      <c r="F74" s="472"/>
+      <c r="B74" s="487"/>
+      <c r="C74" s="487"/>
+      <c r="D74" s="487"/>
+      <c r="E74" s="487"/>
+      <c r="F74" s="488"/>
       <c r="G74" s="309"/>
       <c r="H74" s="309"/>
       <c r="I74" s="380"/>
@@ -23608,7 +23621,7 @@
       <c r="O74" s="115"/>
       <c r="P74" s="115"/>
     </row>
-    <row r="75" spans="1:16" s="43" customFormat="1" ht="15" customHeight="1">
+    <row r="75" spans="1:16" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>10</v>
       </c>
@@ -23630,7 +23643,7 @@
       <c r="O75" s="115"/>
       <c r="P75" s="115"/>
     </row>
-    <row r="76" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="76" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>10.1</v>
       </c>
@@ -23674,7 +23687,7 @@
       <c r="O76" s="115"/>
       <c r="P76" s="115"/>
     </row>
-    <row r="77" spans="1:16" ht="15" customHeight="1" thickBot="1">
+    <row r="77" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="27">
         <v>10.199999999999999</v>
       </c>
@@ -23716,15 +23729,15 @@
       <c r="O77" s="115"/>
       <c r="P77" s="115"/>
     </row>
-    <row r="78" spans="1:16" s="46" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A78" s="470" t="s">
+    <row r="78" spans="1:16" s="46" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="486" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="471"/>
-      <c r="C78" s="471"/>
-      <c r="D78" s="471"/>
-      <c r="E78" s="471"/>
-      <c r="F78" s="472"/>
+      <c r="B78" s="487"/>
+      <c r="C78" s="487"/>
+      <c r="D78" s="487"/>
+      <c r="E78" s="487"/>
+      <c r="F78" s="488"/>
       <c r="G78" s="309"/>
       <c r="H78" s="309"/>
       <c r="I78" s="380"/>
@@ -23739,7 +23752,7 @@
       <c r="O78" s="115"/>
       <c r="P78" s="115"/>
     </row>
-    <row r="79" spans="1:16" s="46" customFormat="1" ht="15" customHeight="1">
+    <row r="79" spans="1:16" s="46" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>11</v>
       </c>
@@ -23761,7 +23774,7 @@
       <c r="O79" s="115"/>
       <c r="P79" s="115"/>
     </row>
-    <row r="80" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="80" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="409">
         <v>11.1</v>
       </c>
@@ -23805,7 +23818,7 @@
       <c r="O80" s="115"/>
       <c r="P80" s="115"/>
     </row>
-    <row r="81" spans="1:16" ht="15" customHeight="1">
+    <row r="81" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="409">
         <v>11.2</v>
       </c>
@@ -23847,7 +23860,7 @@
       <c r="O81" s="115"/>
       <c r="P81" s="115"/>
     </row>
-    <row r="82" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="409">
         <v>11.3</v>
       </c>
@@ -23891,7 +23904,7 @@
       <c r="O82" s="115"/>
       <c r="P82" s="115"/>
     </row>
-    <row r="83" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="83" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="413">
         <v>11.4</v>
       </c>
@@ -23933,15 +23946,15 @@
       <c r="O83" s="115"/>
       <c r="P83" s="115"/>
     </row>
-    <row r="84" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A84" s="473" t="s">
+    <row r="84" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="492" t="s">
         <v>13</v>
       </c>
-      <c r="B84" s="474"/>
-      <c r="C84" s="474"/>
-      <c r="D84" s="474"/>
-      <c r="E84" s="474"/>
-      <c r="F84" s="475"/>
+      <c r="B84" s="493"/>
+      <c r="C84" s="493"/>
+      <c r="D84" s="493"/>
+      <c r="E84" s="493"/>
+      <c r="F84" s="494"/>
       <c r="G84" s="420"/>
       <c r="H84" s="420"/>
       <c r="I84" s="419"/>
@@ -23956,15 +23969,15 @@
       <c r="O84" s="115"/>
       <c r="P84" s="115"/>
     </row>
-    <row r="85" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A85" s="495" t="s">
+    <row r="85" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="483" t="s">
         <v>102</v>
       </c>
-      <c r="B85" s="496"/>
-      <c r="C85" s="496"/>
-      <c r="D85" s="496"/>
-      <c r="E85" s="496"/>
-      <c r="F85" s="497"/>
+      <c r="B85" s="484"/>
+      <c r="C85" s="484"/>
+      <c r="D85" s="484"/>
+      <c r="E85" s="484"/>
+      <c r="F85" s="485"/>
       <c r="G85" s="422"/>
       <c r="H85" s="422"/>
       <c r="I85" s="421"/>
@@ -23979,19 +23992,19 @@
       <c r="O85" s="115"/>
       <c r="P85" s="115"/>
     </row>
-    <row r="86" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A86" s="479" t="s">
+    <row r="86" spans="1:16" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="467" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="480"/>
-      <c r="C86" s="480"/>
-      <c r="D86" s="480"/>
-      <c r="E86" s="480"/>
-      <c r="F86" s="480"/>
-      <c r="G86" s="480"/>
-      <c r="H86" s="480"/>
-      <c r="I86" s="480"/>
-      <c r="J86" s="480"/>
+      <c r="B86" s="468"/>
+      <c r="C86" s="468"/>
+      <c r="D86" s="468"/>
+      <c r="E86" s="468"/>
+      <c r="F86" s="468"/>
+      <c r="G86" s="468"/>
+      <c r="H86" s="468"/>
+      <c r="I86" s="468"/>
+      <c r="J86" s="468"/>
       <c r="K86" s="423"/>
       <c r="L86" s="298"/>
       <c r="M86" s="289">
@@ -23999,19 +24012,19 @@
         <v>265745</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A87" s="481" t="s">
+    <row r="87" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="469" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="482"/>
-      <c r="C87" s="482"/>
-      <c r="D87" s="482"/>
-      <c r="E87" s="482"/>
-      <c r="F87" s="482"/>
-      <c r="G87" s="482"/>
-      <c r="H87" s="482"/>
-      <c r="I87" s="482"/>
-      <c r="J87" s="482"/>
+      <c r="B87" s="470"/>
+      <c r="C87" s="470"/>
+      <c r="D87" s="470"/>
+      <c r="E87" s="470"/>
+      <c r="F87" s="470"/>
+      <c r="G87" s="470"/>
+      <c r="H87" s="470"/>
+      <c r="I87" s="470"/>
+      <c r="J87" s="470"/>
       <c r="K87" s="424"/>
       <c r="L87" s="298"/>
       <c r="M87" s="289">
@@ -24021,6 +24034,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A66:F66"/>
     <mergeCell ref="A86:J86"/>
     <mergeCell ref="A87:J87"/>
     <mergeCell ref="A5:A7"/>
@@ -24037,15 +24059,6 @@
     <mergeCell ref="A85:F85"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A66:F66"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.5" right="0.25" top="0.75" bottom="0.53" header="0.5" footer="0.12"/>
@@ -24062,14 +24075,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC185"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K89" sqref="K89"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B67" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70:G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="245" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="244" customWidth="1"/>
@@ -24086,7 +24099,7 @@
     <col min="13" max="16384" width="9.140625" style="244"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:55" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -24100,7 +24113,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" ht="15">
+    <row r="2" spans="1:55" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="193" t="s">
         <v>197</v>
       </c>
@@ -24112,7 +24125,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="15">
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="193"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -24122,7 +24135,7 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:55" s="194" customFormat="1" ht="6.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:55" s="194" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -24179,61 +24192,61 @@
       <c r="BB4" s="1"/>
       <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:55" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="483" t="s">
+    <row r="5" spans="1:55" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="493" t="s">
+      <c r="B5" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="485" t="s">
+      <c r="C5" s="473" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="485"/>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="486" t="s">
+      <c r="D5" s="473"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="G5" s="474" t="s">
         <v>272</v>
       </c>
-      <c r="H5" s="487"/>
-      <c r="I5" s="487"/>
-      <c r="J5" s="487"/>
-      <c r="K5" s="488"/>
-    </row>
-    <row r="6" spans="1:55" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="483"/>
-      <c r="B6" s="506"/>
-      <c r="C6" s="491" t="s">
+      <c r="H5" s="475"/>
+      <c r="I5" s="475"/>
+      <c r="J5" s="475"/>
+      <c r="K5" s="476"/>
+    </row>
+    <row r="6" spans="1:55" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="471"/>
+      <c r="B6" s="500"/>
+      <c r="C6" s="479" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="493" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="491" t="s">
+      <c r="D6" s="481" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="479" t="s">
         <v>270</v>
       </c>
-      <c r="F6" s="491" t="s">
+      <c r="F6" s="479" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="486" t="s">
+      <c r="G6" s="474" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="488"/>
-      <c r="I6" s="486" t="s">
+      <c r="H6" s="476"/>
+      <c r="I6" s="474" t="s">
         <v>266</v>
       </c>
-      <c r="J6" s="488"/>
-      <c r="K6" s="489" t="s">
+      <c r="J6" s="476"/>
+      <c r="K6" s="477" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="12" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="483"/>
-      <c r="B7" s="507"/>
-      <c r="C7" s="508"/>
-      <c r="D7" s="507"/>
-      <c r="E7" s="508"/>
-      <c r="F7" s="508"/>
+    <row r="7" spans="1:55" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="471"/>
+      <c r="B7" s="501"/>
+      <c r="C7" s="502"/>
+      <c r="D7" s="501"/>
+      <c r="E7" s="502"/>
+      <c r="F7" s="502"/>
       <c r="G7" s="318" t="s">
         <v>273</v>
       </c>
@@ -24246,9 +24259,9 @@
       <c r="J7" s="281" t="s">
         <v>268</v>
       </c>
-      <c r="K7" s="490"/>
-    </row>
-    <row r="8" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1">
+      <c r="K7" s="478"/>
+    </row>
+    <row r="8" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -24265,7 +24278,7 @@
       <c r="J8" s="196"/>
       <c r="K8" s="196"/>
     </row>
-    <row r="9" spans="1:55" s="7" customFormat="1" ht="14.1" customHeight="1">
+    <row r="9" spans="1:55" s="7" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="197">
         <v>1.1000000000000001</v>
       </c>
@@ -24306,7 +24319,7 @@
       <c r="L9" s="115"/>
       <c r="M9" s="115"/>
     </row>
-    <row r="10" spans="1:55" s="7" customFormat="1" ht="25.5" customHeight="1">
+    <row r="10" spans="1:55" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="197">
         <v>1.2</v>
       </c>
@@ -24347,7 +24360,7 @@
       <c r="L10" s="115"/>
       <c r="M10" s="115"/>
     </row>
-    <row r="11" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="11" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="197">
         <v>1.3</v>
       </c>
@@ -24388,13 +24401,13 @@
       <c r="L11" s="115"/>
       <c r="M11" s="115"/>
     </row>
-    <row r="12" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="500" t="s">
+    <row r="12" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="503" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="501"/>
-      <c r="C12" s="501"/>
-      <c r="D12" s="501"/>
+      <c r="B12" s="504"/>
+      <c r="C12" s="504"/>
+      <c r="D12" s="504"/>
       <c r="E12" s="303"/>
       <c r="F12" s="303"/>
       <c r="G12" s="426"/>
@@ -24408,7 +24421,7 @@
       <c r="L12" s="115"/>
       <c r="M12" s="115"/>
     </row>
-    <row r="13" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="13" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -24427,7 +24440,7 @@
       <c r="L13" s="115"/>
       <c r="M13" s="115"/>
     </row>
-    <row r="14" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="197">
         <v>2.1</v>
       </c>
@@ -24469,13 +24482,13 @@
       <c r="L14" s="115"/>
       <c r="M14" s="115"/>
     </row>
-    <row r="15" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="500" t="s">
+    <row r="15" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="503" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="501"/>
-      <c r="C15" s="501"/>
-      <c r="D15" s="501"/>
+      <c r="B15" s="504"/>
+      <c r="C15" s="504"/>
+      <c r="D15" s="504"/>
       <c r="E15" s="304"/>
       <c r="F15" s="304"/>
       <c r="G15" s="428"/>
@@ -24489,7 +24502,7 @@
       <c r="L15" s="115"/>
       <c r="M15" s="115"/>
     </row>
-    <row r="16" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="16" spans="1:55" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -24508,7 +24521,7 @@
       <c r="L16" s="115"/>
       <c r="M16" s="115"/>
     </row>
-    <row r="17" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="197">
         <v>3.1</v>
       </c>
@@ -24549,13 +24562,13 @@
       <c r="L17" s="115"/>
       <c r="M17" s="115"/>
     </row>
-    <row r="18" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="500" t="s">
+    <row r="18" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="503" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="501"/>
-      <c r="C18" s="501"/>
-      <c r="D18" s="501"/>
+      <c r="B18" s="504"/>
+      <c r="C18" s="504"/>
+      <c r="D18" s="504"/>
       <c r="E18" s="303"/>
       <c r="F18" s="303"/>
       <c r="G18" s="426"/>
@@ -24569,7 +24582,7 @@
       <c r="L18" s="115"/>
       <c r="M18" s="115"/>
     </row>
-    <row r="19" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="19" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>4</v>
       </c>
@@ -24588,7 +24601,7 @@
       <c r="L19" s="115"/>
       <c r="M19" s="115"/>
     </row>
-    <row r="20" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="20" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="213">
         <v>4.0999999999999996</v>
       </c>
@@ -24607,7 +24620,7 @@
       <c r="L20" s="115"/>
       <c r="M20" s="115"/>
     </row>
-    <row r="21" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="21" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="197" t="s">
         <v>208</v>
       </c>
@@ -24646,7 +24659,7 @@
       <c r="L21" s="115"/>
       <c r="M21" s="115"/>
     </row>
-    <row r="22" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="22" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="197" t="s">
         <v>210</v>
       </c>
@@ -24685,7 +24698,7 @@
       <c r="L22" s="115"/>
       <c r="M22" s="115"/>
     </row>
-    <row r="23" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="23" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="197" t="s">
         <v>212</v>
       </c>
@@ -24724,7 +24737,7 @@
       <c r="L23" s="115"/>
       <c r="M23" s="115"/>
     </row>
-    <row r="24" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="24" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="197" t="s">
         <v>214</v>
       </c>
@@ -24763,7 +24776,7 @@
       <c r="L24" s="115"/>
       <c r="M24" s="115"/>
     </row>
-    <row r="25" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="25" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="197" t="s">
         <v>216</v>
       </c>
@@ -24802,7 +24815,7 @@
       <c r="L25" s="115"/>
       <c r="M25" s="115"/>
     </row>
-    <row r="26" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="26" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="197" t="s">
         <v>218</v>
       </c>
@@ -24841,7 +24854,7 @@
       <c r="L26" s="115"/>
       <c r="M26" s="115"/>
     </row>
-    <row r="27" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="27" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="213">
         <v>4.2</v>
       </c>
@@ -24860,7 +24873,7 @@
       <c r="L27" s="115"/>
       <c r="M27" s="115"/>
     </row>
-    <row r="28" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="28" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="197" t="s">
         <v>221</v>
       </c>
@@ -24899,7 +24912,7 @@
       <c r="L28" s="115"/>
       <c r="M28" s="115"/>
     </row>
-    <row r="29" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="29" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="239" t="s">
         <v>223</v>
       </c>
@@ -24918,7 +24931,7 @@
       <c r="F29" s="432">
         <v>1000</v>
       </c>
-      <c r="G29" s="382">
+      <c r="G29" s="552">
         <v>6.7220000000000004</v>
       </c>
       <c r="H29" s="320">
@@ -24940,7 +24953,7 @@
       <c r="L29" s="339"/>
       <c r="M29" s="339"/>
     </row>
-    <row r="30" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="30" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="239" t="s">
         <v>225</v>
       </c>
@@ -24959,7 +24972,7 @@
       <c r="F30" s="432">
         <v>900</v>
       </c>
-      <c r="G30" s="382">
+      <c r="G30" s="552">
         <v>7.2279999999999998</v>
       </c>
       <c r="H30" s="320">
@@ -24981,7 +24994,7 @@
       <c r="L30" s="339"/>
       <c r="M30" s="339"/>
     </row>
-    <row r="31" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="31" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="239" t="s">
         <v>227</v>
       </c>
@@ -25000,7 +25013,7 @@
       <c r="F31" s="432">
         <v>800</v>
       </c>
-      <c r="G31" s="382">
+      <c r="G31" s="552">
         <v>54.542999999999999</v>
       </c>
       <c r="H31" s="320">
@@ -25022,13 +25035,13 @@
       <c r="L31" s="339"/>
       <c r="M31" s="339"/>
     </row>
-    <row r="32" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="502" t="s">
+    <row r="32" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="509" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="503"/>
-      <c r="C32" s="503"/>
-      <c r="D32" s="503"/>
+      <c r="B32" s="510"/>
+      <c r="C32" s="510"/>
+      <c r="D32" s="510"/>
       <c r="E32" s="435"/>
       <c r="F32" s="435"/>
       <c r="G32" s="426"/>
@@ -25042,7 +25055,7 @@
       <c r="L32" s="339"/>
       <c r="M32" s="339"/>
     </row>
-    <row r="33" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="33" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="232">
         <v>5</v>
       </c>
@@ -25061,7 +25074,7 @@
       <c r="L33" s="339"/>
       <c r="M33" s="339"/>
     </row>
-    <row r="34" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="34" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="439">
         <v>5.0999999999999996</v>
       </c>
@@ -25080,7 +25093,7 @@
       <c r="L34" s="339"/>
       <c r="M34" s="339"/>
     </row>
-    <row r="35" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1">
+    <row r="35" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="224" t="s">
         <v>79</v>
       </c>
@@ -25119,7 +25132,7 @@
       <c r="L35" s="115"/>
       <c r="M35" s="115"/>
     </row>
-    <row r="36" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="36" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="224" t="s">
         <v>80</v>
       </c>
@@ -25158,7 +25171,7 @@
       <c r="L36" s="115"/>
       <c r="M36" s="115"/>
     </row>
-    <row r="37" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="37" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="224" t="s">
         <v>81</v>
       </c>
@@ -25197,7 +25210,7 @@
       <c r="L37" s="115"/>
       <c r="M37" s="115"/>
     </row>
-    <row r="38" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1">
+    <row r="38" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="224" t="s">
         <v>82</v>
       </c>
@@ -25236,7 +25249,7 @@
       <c r="L38" s="115"/>
       <c r="M38" s="115"/>
     </row>
-    <row r="39" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="39" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="224" t="s">
         <v>83</v>
       </c>
@@ -25275,7 +25288,7 @@
       <c r="L39" s="115"/>
       <c r="M39" s="115"/>
     </row>
-    <row r="40" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="40" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="213">
         <v>5.2</v>
       </c>
@@ -25294,7 +25307,7 @@
       <c r="L40" s="115"/>
       <c r="M40" s="115"/>
     </row>
-    <row r="41" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1">
+    <row r="41" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="224" t="s">
         <v>86</v>
       </c>
@@ -25333,7 +25346,7 @@
       <c r="L41" s="115"/>
       <c r="M41" s="115"/>
     </row>
-    <row r="42" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="42" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="224" t="s">
         <v>87</v>
       </c>
@@ -25372,7 +25385,7 @@
       <c r="L42" s="115"/>
       <c r="M42" s="115"/>
     </row>
-    <row r="43" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1">
+    <row r="43" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="224" t="s">
         <v>88</v>
       </c>
@@ -25411,7 +25424,7 @@
       <c r="L43" s="115"/>
       <c r="M43" s="115"/>
     </row>
-    <row r="44" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="44" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="224" t="s">
         <v>232</v>
       </c>
@@ -25450,7 +25463,7 @@
       <c r="L44" s="115"/>
       <c r="M44" s="115"/>
     </row>
-    <row r="45" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="45" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="224" t="s">
         <v>233</v>
       </c>
@@ -25489,7 +25502,7 @@
       <c r="L45" s="115"/>
       <c r="M45" s="115"/>
     </row>
-    <row r="46" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="46" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="213">
         <v>5.3</v>
       </c>
@@ -25508,7 +25521,7 @@
       <c r="L46" s="115"/>
       <c r="M46" s="115"/>
     </row>
-    <row r="47" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1">
+    <row r="47" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="224" t="s">
         <v>89</v>
       </c>
@@ -25547,7 +25560,7 @@
       <c r="L47" s="115"/>
       <c r="M47" s="115"/>
     </row>
-    <row r="48" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1">
+    <row r="48" spans="1:13" s="227" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="224" t="s">
         <v>90</v>
       </c>
@@ -25586,7 +25599,7 @@
       <c r="L48" s="115"/>
       <c r="M48" s="115"/>
     </row>
-    <row r="49" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="49" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="224" t="s">
         <v>91</v>
       </c>
@@ -25625,7 +25638,7 @@
       <c r="L49" s="115"/>
       <c r="M49" s="115"/>
     </row>
-    <row r="50" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="50" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="224" t="s">
         <v>92</v>
       </c>
@@ -25664,7 +25677,7 @@
       <c r="L50" s="115"/>
       <c r="M50" s="115"/>
     </row>
-    <row r="51" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="51" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="224" t="s">
         <v>93</v>
       </c>
@@ -25703,7 +25716,7 @@
       <c r="L51" s="115"/>
       <c r="M51" s="115"/>
     </row>
-    <row r="52" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="52" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="213">
         <v>5.4</v>
       </c>
@@ -25722,7 +25735,7 @@
       <c r="L52" s="115"/>
       <c r="M52" s="115"/>
     </row>
-    <row r="53" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="53" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="224" t="s">
         <v>97</v>
       </c>
@@ -25761,7 +25774,7 @@
       <c r="L53" s="115"/>
       <c r="M53" s="115"/>
     </row>
-    <row r="54" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="54" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="444" t="s">
         <v>236</v>
       </c>
@@ -25802,7 +25815,7 @@
       <c r="L54" s="339"/>
       <c r="M54" s="339"/>
     </row>
-    <row r="55" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="55" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="444" t="s">
         <v>237</v>
       </c>
@@ -25843,7 +25856,7 @@
       <c r="L55" s="339"/>
       <c r="M55" s="339"/>
     </row>
-    <row r="56" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="56" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="444" t="s">
         <v>238</v>
       </c>
@@ -25884,13 +25897,13 @@
       <c r="L56" s="339"/>
       <c r="M56" s="339"/>
     </row>
-    <row r="57" spans="1:13" s="448" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A57" s="502" t="s">
+    <row r="57" spans="1:13" s="448" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="509" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="503"/>
-      <c r="C57" s="503"/>
-      <c r="D57" s="503"/>
+      <c r="B57" s="510"/>
+      <c r="C57" s="510"/>
+      <c r="D57" s="510"/>
       <c r="E57" s="435"/>
       <c r="F57" s="435"/>
       <c r="G57" s="426"/>
@@ -25904,7 +25917,7 @@
       <c r="L57" s="339"/>
       <c r="M57" s="339"/>
     </row>
-    <row r="58" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="58" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="232">
         <v>6</v>
       </c>
@@ -25923,7 +25936,7 @@
       <c r="L58" s="339"/>
       <c r="M58" s="339"/>
     </row>
-    <row r="59" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="59" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="239">
         <v>6.1</v>
       </c>
@@ -25964,13 +25977,13 @@
       <c r="L59" s="339"/>
       <c r="M59" s="339"/>
     </row>
-    <row r="60" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A60" s="502" t="s">
+    <row r="60" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="509" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="503"/>
-      <c r="C60" s="503"/>
-      <c r="D60" s="503"/>
+      <c r="B60" s="510"/>
+      <c r="C60" s="510"/>
+      <c r="D60" s="510"/>
       <c r="E60" s="435"/>
       <c r="F60" s="435"/>
       <c r="G60" s="426"/>
@@ -25984,7 +25997,7 @@
       <c r="L60" s="339"/>
       <c r="M60" s="339"/>
     </row>
-    <row r="61" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="61" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="232">
         <v>7</v>
       </c>
@@ -26003,7 +26016,7 @@
       <c r="L61" s="339"/>
       <c r="M61" s="339"/>
     </row>
-    <row r="62" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="62" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="439">
         <v>7.1</v>
       </c>
@@ -26022,7 +26035,7 @@
       <c r="L62" s="339"/>
       <c r="M62" s="339"/>
     </row>
-    <row r="63" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="63" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="239" t="s">
         <v>243</v>
       </c>
@@ -26061,7 +26074,7 @@
       <c r="L63" s="339"/>
       <c r="M63" s="339"/>
     </row>
-    <row r="64" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="64" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="239" t="s">
         <v>244</v>
       </c>
@@ -26100,7 +26113,7 @@
       <c r="L64" s="339"/>
       <c r="M64" s="339"/>
     </row>
-    <row r="65" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="65" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="239" t="s">
         <v>245</v>
       </c>
@@ -26139,7 +26152,7 @@
       <c r="L65" s="339"/>
       <c r="M65" s="339"/>
     </row>
-    <row r="66" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="66" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="239" t="s">
         <v>246</v>
       </c>
@@ -26178,7 +26191,7 @@
       <c r="L66" s="339"/>
       <c r="M66" s="339"/>
     </row>
-    <row r="67" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="67" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="239" t="s">
         <v>247</v>
       </c>
@@ -26217,7 +26230,7 @@
       <c r="L67" s="339"/>
       <c r="M67" s="339"/>
     </row>
-    <row r="68" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="68" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="239" t="s">
         <v>248</v>
       </c>
@@ -26256,7 +26269,7 @@
       <c r="L68" s="339"/>
       <c r="M68" s="339"/>
     </row>
-    <row r="69" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1">
+    <row r="69" spans="1:13" s="433" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="239" t="s">
         <v>249</v>
       </c>
@@ -26295,7 +26308,7 @@
       <c r="L69" s="339"/>
       <c r="M69" s="339"/>
     </row>
-    <row r="70" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="70" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="197" t="s">
         <v>250</v>
       </c>
@@ -26315,7 +26328,7 @@
       <c r="F70" s="302">
         <v>500</v>
       </c>
-      <c r="G70" s="382">
+      <c r="G70" s="552">
         <v>6.7220000000000004</v>
       </c>
       <c r="H70" s="320">
@@ -26337,7 +26350,7 @@
       <c r="L70" s="115"/>
       <c r="M70" s="115"/>
     </row>
-    <row r="71" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="71" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="197" t="s">
         <v>251</v>
       </c>
@@ -26357,7 +26370,7 @@
       <c r="F71" s="302">
         <v>400</v>
       </c>
-      <c r="G71" s="382">
+      <c r="G71" s="552">
         <v>7.2279999999999998</v>
       </c>
       <c r="H71" s="320">
@@ -26379,7 +26392,7 @@
       <c r="L71" s="115"/>
       <c r="M71" s="115"/>
     </row>
-    <row r="72" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="72" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="197" t="s">
         <v>252</v>
       </c>
@@ -26399,7 +26412,7 @@
       <c r="F72" s="302">
         <v>300</v>
       </c>
-      <c r="G72" s="382">
+      <c r="G72" s="552">
         <v>54.542999999999999</v>
       </c>
       <c r="H72" s="320">
@@ -26421,7 +26434,7 @@
       <c r="L72" s="115"/>
       <c r="M72" s="115"/>
     </row>
-    <row r="73" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="73" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="197">
         <v>7.2</v>
       </c>
@@ -26462,7 +26475,7 @@
       <c r="L73" s="115"/>
       <c r="M73" s="115"/>
     </row>
-    <row r="74" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="74" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="197">
         <v>7.3</v>
       </c>
@@ -26501,13 +26514,13 @@
       <c r="L74" s="115"/>
       <c r="M74" s="115"/>
     </row>
-    <row r="75" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A75" s="500" t="s">
+    <row r="75" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="503" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="501"/>
-      <c r="C75" s="501"/>
-      <c r="D75" s="501"/>
+      <c r="B75" s="504"/>
+      <c r="C75" s="504"/>
+      <c r="D75" s="504"/>
       <c r="E75" s="303"/>
       <c r="F75" s="303"/>
       <c r="G75" s="426"/>
@@ -26521,7 +26534,7 @@
       <c r="L75" s="115"/>
       <c r="M75" s="115"/>
     </row>
-    <row r="76" spans="1:13" s="228" customFormat="1" ht="14.25" customHeight="1">
+    <row r="76" spans="1:13" s="228" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>8</v>
       </c>
@@ -26540,7 +26553,7 @@
       <c r="L76" s="115"/>
       <c r="M76" s="115"/>
     </row>
-    <row r="77" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="77" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="229">
         <v>8.1</v>
       </c>
@@ -26581,13 +26594,13 @@
       <c r="L77" s="115"/>
       <c r="M77" s="115"/>
     </row>
-    <row r="78" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A78" s="500" t="s">
+    <row r="78" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="503" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="501"/>
-      <c r="C78" s="501"/>
-      <c r="D78" s="501"/>
+      <c r="B78" s="504"/>
+      <c r="C78" s="504"/>
+      <c r="D78" s="504"/>
       <c r="E78" s="303"/>
       <c r="F78" s="303"/>
       <c r="G78" s="426"/>
@@ -26601,7 +26614,7 @@
       <c r="L78" s="115"/>
       <c r="M78" s="115"/>
     </row>
-    <row r="79" spans="1:13" s="236" customFormat="1" ht="14.25" customHeight="1">
+    <row r="79" spans="1:13" s="236" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="232">
         <v>9</v>
       </c>
@@ -26620,7 +26633,7 @@
       <c r="L79" s="115"/>
       <c r="M79" s="115"/>
     </row>
-    <row r="80" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="80" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="197">
         <v>9.1</v>
       </c>
@@ -26661,7 +26674,7 @@
       <c r="L80" s="115"/>
       <c r="M80" s="115"/>
     </row>
-    <row r="81" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="81" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="239">
         <v>9.1999999999999993</v>
       </c>
@@ -26702,7 +26715,7 @@
       <c r="L81" s="115"/>
       <c r="M81" s="115"/>
     </row>
-    <row r="82" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="82" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="197">
         <v>9.3000000000000007</v>
       </c>
@@ -26741,7 +26754,7 @@
       <c r="L82" s="115"/>
       <c r="M82" s="115"/>
     </row>
-    <row r="83" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
+    <row r="83" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="239">
         <v>9.4</v>
       </c>
@@ -26780,7 +26793,7 @@
       <c r="L83" s="115"/>
       <c r="M83" s="115"/>
     </row>
-    <row r="84" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1">
+    <row r="84" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="197">
         <v>9.5</v>
       </c>
@@ -26819,7 +26832,7 @@
       <c r="L84" s="115"/>
       <c r="M84" s="115"/>
     </row>
-    <row r="85" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="85" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="291">
         <v>9.6</v>
       </c>
@@ -26860,13 +26873,13 @@
       <c r="L85" s="115"/>
       <c r="M85" s="115"/>
     </row>
-    <row r="86" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A86" s="509" t="s">
+    <row r="86" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="505" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="510"/>
-      <c r="C86" s="510"/>
-      <c r="D86" s="510"/>
+      <c r="B86" s="506"/>
+      <c r="C86" s="506"/>
+      <c r="D86" s="506"/>
       <c r="E86" s="306"/>
       <c r="F86" s="306"/>
       <c r="G86" s="459"/>
@@ -26880,13 +26893,13 @@
       <c r="L86" s="115"/>
       <c r="M86" s="115"/>
     </row>
-    <row r="87" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A87" s="498" t="s">
+    <row r="87" spans="1:13" s="7" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="507" t="s">
         <v>260</v>
       </c>
-      <c r="B87" s="499"/>
-      <c r="C87" s="499"/>
-      <c r="D87" s="499"/>
+      <c r="B87" s="508"/>
+      <c r="C87" s="508"/>
+      <c r="D87" s="508"/>
       <c r="E87" s="307"/>
       <c r="F87" s="307"/>
       <c r="G87" s="460"/>
@@ -26900,44 +26913,44 @@
       <c r="L87" s="115"/>
       <c r="M87" s="115"/>
     </row>
-    <row r="88" spans="1:13" s="228" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A88" s="504" t="s">
+    <row r="88" spans="1:13" s="228" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="498" t="s">
         <v>280</v>
       </c>
-      <c r="B88" s="505"/>
-      <c r="C88" s="505"/>
-      <c r="D88" s="505"/>
-      <c r="E88" s="505"/>
-      <c r="F88" s="505"/>
-      <c r="G88" s="505"/>
-      <c r="H88" s="505"/>
-      <c r="I88" s="505"/>
-      <c r="J88" s="505"/>
+      <c r="B88" s="499"/>
+      <c r="C88" s="499"/>
+      <c r="D88" s="499"/>
+      <c r="E88" s="499"/>
+      <c r="F88" s="499"/>
+      <c r="G88" s="499"/>
+      <c r="H88" s="499"/>
+      <c r="I88" s="499"/>
+      <c r="J88" s="499"/>
       <c r="K88" s="289">
         <f>ROUND(K89-K87,0)</f>
         <v>74407</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="228" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A89" s="481" t="s">
+    <row r="89" spans="1:13" s="228" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="469" t="s">
         <v>282</v>
       </c>
-      <c r="B89" s="482"/>
-      <c r="C89" s="482"/>
-      <c r="D89" s="482"/>
-      <c r="E89" s="482"/>
-      <c r="F89" s="482"/>
-      <c r="G89" s="482"/>
-      <c r="H89" s="482"/>
-      <c r="I89" s="482"/>
-      <c r="J89" s="482"/>
+      <c r="B89" s="470"/>
+      <c r="C89" s="470"/>
+      <c r="D89" s="470"/>
+      <c r="E89" s="470"/>
+      <c r="F89" s="470"/>
+      <c r="G89" s="470"/>
+      <c r="H89" s="470"/>
+      <c r="I89" s="470"/>
+      <c r="J89" s="470"/>
       <c r="K89" s="289">
         <f>ROUND(K87/0.91525,0)</f>
         <v>877959</v>
       </c>
       <c r="L89" s="290"/>
     </row>
-    <row r="90" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="90" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A90" s="240"/>
       <c r="C90" s="241"/>
       <c r="D90" s="241"/>
@@ -26949,7 +26962,7 @@
       <c r="J90" s="242"/>
       <c r="K90" s="242"/>
     </row>
-    <row r="91" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="91" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A91" s="240"/>
       <c r="C91" s="241"/>
       <c r="D91" s="241"/>
@@ -26961,7 +26974,7 @@
       <c r="J91" s="242"/>
       <c r="K91" s="242"/>
     </row>
-    <row r="92" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="92" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A92" s="240"/>
       <c r="C92" s="241"/>
       <c r="D92" s="241"/>
@@ -26973,7 +26986,7 @@
       <c r="J92" s="242"/>
       <c r="K92" s="242"/>
     </row>
-    <row r="93" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="93" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A93" s="240"/>
       <c r="C93" s="241"/>
       <c r="D93" s="241"/>
@@ -26985,7 +26998,7 @@
       <c r="J93" s="242"/>
       <c r="K93" s="242"/>
     </row>
-    <row r="94" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="94" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A94" s="240"/>
       <c r="C94" s="241"/>
       <c r="D94" s="241"/>
@@ -26997,7 +27010,7 @@
       <c r="J94" s="242"/>
       <c r="K94" s="242"/>
     </row>
-    <row r="95" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="95" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A95" s="240"/>
       <c r="C95" s="241"/>
       <c r="D95" s="241"/>
@@ -27009,7 +27022,7 @@
       <c r="J95" s="242"/>
       <c r="K95" s="242"/>
     </row>
-    <row r="96" spans="1:13" s="228" customFormat="1" ht="12">
+    <row r="96" spans="1:13" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A96" s="240"/>
       <c r="C96" s="241"/>
       <c r="D96" s="241"/>
@@ -27021,7 +27034,7 @@
       <c r="J96" s="242"/>
       <c r="K96" s="242"/>
     </row>
-    <row r="97" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="97" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A97" s="240"/>
       <c r="C97" s="241"/>
       <c r="D97" s="241"/>
@@ -27033,7 +27046,7 @@
       <c r="J97" s="242"/>
       <c r="K97" s="242"/>
     </row>
-    <row r="98" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="98" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A98" s="240"/>
       <c r="C98" s="241"/>
       <c r="D98" s="241"/>
@@ -27045,7 +27058,7 @@
       <c r="J98" s="242"/>
       <c r="K98" s="242"/>
     </row>
-    <row r="99" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="99" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A99" s="240"/>
       <c r="C99" s="241"/>
       <c r="D99" s="241"/>
@@ -27057,7 +27070,7 @@
       <c r="J99" s="242"/>
       <c r="K99" s="242"/>
     </row>
-    <row r="100" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="100" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A100" s="240"/>
       <c r="C100" s="241"/>
       <c r="D100" s="241"/>
@@ -27069,7 +27082,7 @@
       <c r="J100" s="242"/>
       <c r="K100" s="242"/>
     </row>
-    <row r="101" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="101" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A101" s="240"/>
       <c r="C101" s="241"/>
       <c r="D101" s="241"/>
@@ -27081,7 +27094,7 @@
       <c r="J101" s="242"/>
       <c r="K101" s="242"/>
     </row>
-    <row r="102" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="102" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A102" s="240"/>
       <c r="C102" s="241"/>
       <c r="D102" s="241"/>
@@ -27093,7 +27106,7 @@
       <c r="J102" s="242"/>
       <c r="K102" s="242"/>
     </row>
-    <row r="103" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="103" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A103" s="240"/>
       <c r="C103" s="241"/>
       <c r="D103" s="241"/>
@@ -27105,7 +27118,7 @@
       <c r="J103" s="242"/>
       <c r="K103" s="242"/>
     </row>
-    <row r="104" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="104" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A104" s="240"/>
       <c r="C104" s="241"/>
       <c r="D104" s="241"/>
@@ -27117,7 +27130,7 @@
       <c r="J104" s="242"/>
       <c r="K104" s="242"/>
     </row>
-    <row r="105" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="105" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A105" s="240"/>
       <c r="C105" s="241"/>
       <c r="D105" s="241"/>
@@ -27129,7 +27142,7 @@
       <c r="J105" s="242"/>
       <c r="K105" s="242"/>
     </row>
-    <row r="106" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="106" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A106" s="240"/>
       <c r="C106" s="241"/>
       <c r="D106" s="241"/>
@@ -27141,7 +27154,7 @@
       <c r="J106" s="242"/>
       <c r="K106" s="242"/>
     </row>
-    <row r="107" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="107" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A107" s="240"/>
       <c r="C107" s="241"/>
       <c r="D107" s="241"/>
@@ -27153,7 +27166,7 @@
       <c r="J107" s="242"/>
       <c r="K107" s="242"/>
     </row>
-    <row r="108" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="108" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A108" s="240"/>
       <c r="C108" s="241"/>
       <c r="D108" s="241"/>
@@ -27165,7 +27178,7 @@
       <c r="J108" s="242"/>
       <c r="K108" s="242"/>
     </row>
-    <row r="109" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="109" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A109" s="240"/>
       <c r="C109" s="241"/>
       <c r="D109" s="241"/>
@@ -27177,7 +27190,7 @@
       <c r="J109" s="242"/>
       <c r="K109" s="242"/>
     </row>
-    <row r="110" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="110" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A110" s="240"/>
       <c r="C110" s="241"/>
       <c r="D110" s="241"/>
@@ -27189,7 +27202,7 @@
       <c r="J110" s="242"/>
       <c r="K110" s="242"/>
     </row>
-    <row r="111" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="111" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A111" s="240"/>
       <c r="C111" s="241"/>
       <c r="D111" s="241"/>
@@ -27201,7 +27214,7 @@
       <c r="J111" s="242"/>
       <c r="K111" s="242"/>
     </row>
-    <row r="112" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="112" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A112" s="240"/>
       <c r="C112" s="241"/>
       <c r="D112" s="241"/>
@@ -27213,7 +27226,7 @@
       <c r="J112" s="242"/>
       <c r="K112" s="242"/>
     </row>
-    <row r="113" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="113" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A113" s="240"/>
       <c r="C113" s="241"/>
       <c r="D113" s="241"/>
@@ -27225,7 +27238,7 @@
       <c r="J113" s="242"/>
       <c r="K113" s="242"/>
     </row>
-    <row r="114" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="114" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A114" s="240"/>
       <c r="C114" s="241"/>
       <c r="D114" s="241"/>
@@ -27237,7 +27250,7 @@
       <c r="J114" s="242"/>
       <c r="K114" s="242"/>
     </row>
-    <row r="115" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="115" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A115" s="240"/>
       <c r="C115" s="241"/>
       <c r="D115" s="241"/>
@@ -27249,7 +27262,7 @@
       <c r="J115" s="242"/>
       <c r="K115" s="242"/>
     </row>
-    <row r="116" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="116" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A116" s="240"/>
       <c r="C116" s="241"/>
       <c r="D116" s="241"/>
@@ -27261,7 +27274,7 @@
       <c r="J116" s="242"/>
       <c r="K116" s="242"/>
     </row>
-    <row r="117" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="117" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A117" s="240"/>
       <c r="C117" s="241"/>
       <c r="D117" s="241"/>
@@ -27273,7 +27286,7 @@
       <c r="J117" s="242"/>
       <c r="K117" s="242"/>
     </row>
-    <row r="118" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="118" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A118" s="240"/>
       <c r="C118" s="241"/>
       <c r="D118" s="241"/>
@@ -27285,7 +27298,7 @@
       <c r="J118" s="242"/>
       <c r="K118" s="242"/>
     </row>
-    <row r="119" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="119" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A119" s="240"/>
       <c r="C119" s="241"/>
       <c r="D119" s="241"/>
@@ -27297,7 +27310,7 @@
       <c r="J119" s="242"/>
       <c r="K119" s="242"/>
     </row>
-    <row r="120" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="120" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A120" s="240"/>
       <c r="C120" s="241"/>
       <c r="D120" s="241"/>
@@ -27309,7 +27322,7 @@
       <c r="J120" s="242"/>
       <c r="K120" s="242"/>
     </row>
-    <row r="121" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="121" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A121" s="240"/>
       <c r="C121" s="241"/>
       <c r="D121" s="241"/>
@@ -27321,7 +27334,7 @@
       <c r="J121" s="242"/>
       <c r="K121" s="242"/>
     </row>
-    <row r="122" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="122" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A122" s="240"/>
       <c r="C122" s="241"/>
       <c r="D122" s="241"/>
@@ -27333,7 +27346,7 @@
       <c r="J122" s="242"/>
       <c r="K122" s="242"/>
     </row>
-    <row r="123" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="123" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A123" s="240"/>
       <c r="C123" s="241"/>
       <c r="D123" s="241"/>
@@ -27345,7 +27358,7 @@
       <c r="J123" s="242"/>
       <c r="K123" s="242"/>
     </row>
-    <row r="124" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="124" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A124" s="240"/>
       <c r="C124" s="241"/>
       <c r="D124" s="241"/>
@@ -27357,7 +27370,7 @@
       <c r="J124" s="242"/>
       <c r="K124" s="242"/>
     </row>
-    <row r="125" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="125" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A125" s="240"/>
       <c r="C125" s="241"/>
       <c r="D125" s="241"/>
@@ -27369,7 +27382,7 @@
       <c r="J125" s="242"/>
       <c r="K125" s="242"/>
     </row>
-    <row r="126" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="126" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A126" s="240"/>
       <c r="C126" s="241"/>
       <c r="D126" s="241"/>
@@ -27381,7 +27394,7 @@
       <c r="J126" s="242"/>
       <c r="K126" s="242"/>
     </row>
-    <row r="127" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="127" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A127" s="240"/>
       <c r="C127" s="241"/>
       <c r="D127" s="241"/>
@@ -27393,7 +27406,7 @@
       <c r="J127" s="242"/>
       <c r="K127" s="242"/>
     </row>
-    <row r="128" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="128" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A128" s="240"/>
       <c r="C128" s="241"/>
       <c r="D128" s="241"/>
@@ -27405,7 +27418,7 @@
       <c r="J128" s="242"/>
       <c r="K128" s="242"/>
     </row>
-    <row r="129" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="129" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A129" s="240"/>
       <c r="C129" s="241"/>
       <c r="D129" s="241"/>
@@ -27417,7 +27430,7 @@
       <c r="J129" s="242"/>
       <c r="K129" s="242"/>
     </row>
-    <row r="130" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="130" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A130" s="240"/>
       <c r="C130" s="241"/>
       <c r="D130" s="241"/>
@@ -27429,7 +27442,7 @@
       <c r="J130" s="242"/>
       <c r="K130" s="242"/>
     </row>
-    <row r="131" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="131" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A131" s="240"/>
       <c r="C131" s="241"/>
       <c r="D131" s="241"/>
@@ -27441,7 +27454,7 @@
       <c r="J131" s="242"/>
       <c r="K131" s="242"/>
     </row>
-    <row r="132" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="132" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A132" s="240"/>
       <c r="C132" s="241"/>
       <c r="D132" s="241"/>
@@ -27453,7 +27466,7 @@
       <c r="J132" s="242"/>
       <c r="K132" s="242"/>
     </row>
-    <row r="133" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="133" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A133" s="240"/>
       <c r="C133" s="241"/>
       <c r="D133" s="241"/>
@@ -27465,7 +27478,7 @@
       <c r="J133" s="242"/>
       <c r="K133" s="242"/>
     </row>
-    <row r="134" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="134" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A134" s="240"/>
       <c r="C134" s="241"/>
       <c r="D134" s="241"/>
@@ -27477,7 +27490,7 @@
       <c r="J134" s="242"/>
       <c r="K134" s="242"/>
     </row>
-    <row r="135" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="135" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A135" s="240"/>
       <c r="C135" s="241"/>
       <c r="D135" s="241"/>
@@ -27489,7 +27502,7 @@
       <c r="J135" s="242"/>
       <c r="K135" s="242"/>
     </row>
-    <row r="136" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="136" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A136" s="240"/>
       <c r="C136" s="241"/>
       <c r="D136" s="241"/>
@@ -27501,7 +27514,7 @@
       <c r="J136" s="242"/>
       <c r="K136" s="242"/>
     </row>
-    <row r="137" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="137" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A137" s="240"/>
       <c r="C137" s="241"/>
       <c r="D137" s="241"/>
@@ -27513,7 +27526,7 @@
       <c r="J137" s="242"/>
       <c r="K137" s="242"/>
     </row>
-    <row r="138" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="138" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A138" s="240"/>
       <c r="C138" s="241"/>
       <c r="D138" s="241"/>
@@ -27525,7 +27538,7 @@
       <c r="J138" s="242"/>
       <c r="K138" s="242"/>
     </row>
-    <row r="139" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="139" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A139" s="240"/>
       <c r="C139" s="241"/>
       <c r="D139" s="241"/>
@@ -27537,7 +27550,7 @@
       <c r="J139" s="242"/>
       <c r="K139" s="242"/>
     </row>
-    <row r="140" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="140" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A140" s="240"/>
       <c r="C140" s="241"/>
       <c r="D140" s="241"/>
@@ -27549,7 +27562,7 @@
       <c r="J140" s="242"/>
       <c r="K140" s="242"/>
     </row>
-    <row r="141" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="141" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A141" s="240"/>
       <c r="C141" s="241"/>
       <c r="D141" s="241"/>
@@ -27561,7 +27574,7 @@
       <c r="J141" s="242"/>
       <c r="K141" s="242"/>
     </row>
-    <row r="142" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="142" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A142" s="240"/>
       <c r="C142" s="241"/>
       <c r="D142" s="241"/>
@@ -27573,7 +27586,7 @@
       <c r="J142" s="242"/>
       <c r="K142" s="242"/>
     </row>
-    <row r="143" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="143" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A143" s="240"/>
       <c r="C143" s="241"/>
       <c r="D143" s="241"/>
@@ -27585,7 +27598,7 @@
       <c r="J143" s="242"/>
       <c r="K143" s="242"/>
     </row>
-    <row r="144" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="144" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A144" s="240"/>
       <c r="C144" s="241"/>
       <c r="D144" s="241"/>
@@ -27597,7 +27610,7 @@
       <c r="J144" s="242"/>
       <c r="K144" s="242"/>
     </row>
-    <row r="145" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="145" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A145" s="240"/>
       <c r="C145" s="241"/>
       <c r="D145" s="241"/>
@@ -27609,7 +27622,7 @@
       <c r="J145" s="242"/>
       <c r="K145" s="242"/>
     </row>
-    <row r="146" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="146" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A146" s="240"/>
       <c r="C146" s="241"/>
       <c r="D146" s="241"/>
@@ -27621,7 +27634,7 @@
       <c r="J146" s="242"/>
       <c r="K146" s="242"/>
     </row>
-    <row r="147" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="147" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A147" s="240"/>
       <c r="C147" s="241"/>
       <c r="D147" s="241"/>
@@ -27633,7 +27646,7 @@
       <c r="J147" s="242"/>
       <c r="K147" s="242"/>
     </row>
-    <row r="148" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="148" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A148" s="240"/>
       <c r="C148" s="241"/>
       <c r="D148" s="241"/>
@@ -27645,7 +27658,7 @@
       <c r="J148" s="242"/>
       <c r="K148" s="242"/>
     </row>
-    <row r="149" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="149" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A149" s="240"/>
       <c r="C149" s="241"/>
       <c r="D149" s="241"/>
@@ -27657,7 +27670,7 @@
       <c r="J149" s="242"/>
       <c r="K149" s="242"/>
     </row>
-    <row r="150" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="150" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A150" s="240"/>
       <c r="C150" s="241"/>
       <c r="D150" s="241"/>
@@ -27669,7 +27682,7 @@
       <c r="J150" s="242"/>
       <c r="K150" s="242"/>
     </row>
-    <row r="151" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="151" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A151" s="240"/>
       <c r="C151" s="241"/>
       <c r="D151" s="241"/>
@@ -27681,7 +27694,7 @@
       <c r="J151" s="242"/>
       <c r="K151" s="242"/>
     </row>
-    <row r="152" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="152" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A152" s="240"/>
       <c r="C152" s="241"/>
       <c r="D152" s="241"/>
@@ -27693,7 +27706,7 @@
       <c r="J152" s="242"/>
       <c r="K152" s="242"/>
     </row>
-    <row r="153" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="153" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A153" s="240"/>
       <c r="C153" s="241"/>
       <c r="D153" s="241"/>
@@ -27705,7 +27718,7 @@
       <c r="J153" s="242"/>
       <c r="K153" s="242"/>
     </row>
-    <row r="154" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="154" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A154" s="240"/>
       <c r="C154" s="241"/>
       <c r="D154" s="241"/>
@@ -27717,7 +27730,7 @@
       <c r="J154" s="242"/>
       <c r="K154" s="242"/>
     </row>
-    <row r="155" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="155" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A155" s="240"/>
       <c r="C155" s="241"/>
       <c r="D155" s="241"/>
@@ -27729,7 +27742,7 @@
       <c r="J155" s="242"/>
       <c r="K155" s="242"/>
     </row>
-    <row r="156" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="156" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A156" s="240"/>
       <c r="C156" s="241"/>
       <c r="D156" s="241"/>
@@ -27741,7 +27754,7 @@
       <c r="J156" s="242"/>
       <c r="K156" s="242"/>
     </row>
-    <row r="157" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="157" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A157" s="240"/>
       <c r="C157" s="241"/>
       <c r="D157" s="241"/>
@@ -27753,7 +27766,7 @@
       <c r="J157" s="242"/>
       <c r="K157" s="242"/>
     </row>
-    <row r="158" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="158" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A158" s="240"/>
       <c r="C158" s="241"/>
       <c r="D158" s="241"/>
@@ -27765,7 +27778,7 @@
       <c r="J158" s="242"/>
       <c r="K158" s="242"/>
     </row>
-    <row r="159" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="159" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A159" s="240"/>
       <c r="C159" s="241"/>
       <c r="D159" s="241"/>
@@ -27777,7 +27790,7 @@
       <c r="J159" s="242"/>
       <c r="K159" s="242"/>
     </row>
-    <row r="160" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="160" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A160" s="240"/>
       <c r="C160" s="241"/>
       <c r="D160" s="241"/>
@@ -27789,7 +27802,7 @@
       <c r="J160" s="242"/>
       <c r="K160" s="242"/>
     </row>
-    <row r="161" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="161" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A161" s="240"/>
       <c r="C161" s="241"/>
       <c r="D161" s="241"/>
@@ -27801,7 +27814,7 @@
       <c r="J161" s="242"/>
       <c r="K161" s="242"/>
     </row>
-    <row r="162" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="162" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A162" s="240"/>
       <c r="C162" s="241"/>
       <c r="D162" s="241"/>
@@ -27813,7 +27826,7 @@
       <c r="J162" s="243"/>
       <c r="K162" s="243"/>
     </row>
-    <row r="163" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="163" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A163" s="240"/>
       <c r="C163" s="241"/>
       <c r="D163" s="241"/>
@@ -27825,7 +27838,7 @@
       <c r="J163" s="243"/>
       <c r="K163" s="243"/>
     </row>
-    <row r="164" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="164" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A164" s="240"/>
       <c r="C164" s="241"/>
       <c r="D164" s="241"/>
@@ -27837,7 +27850,7 @@
       <c r="J164" s="243"/>
       <c r="K164" s="243"/>
     </row>
-    <row r="165" spans="1:11" s="228" customFormat="1" ht="12">
+    <row r="165" spans="1:11" s="228" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A165" s="240"/>
       <c r="C165" s="241"/>
       <c r="D165" s="241"/>
@@ -27849,7 +27862,7 @@
       <c r="J165" s="243"/>
       <c r="K165" s="243"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="240"/>
       <c r="B166" s="228"/>
       <c r="C166" s="241"/>
@@ -27862,7 +27875,7 @@
       <c r="J166" s="243"/>
       <c r="K166" s="243"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="240"/>
       <c r="B167" s="228"/>
       <c r="C167" s="241"/>
@@ -27875,7 +27888,7 @@
       <c r="J167" s="243"/>
       <c r="K167" s="243"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="240"/>
       <c r="B168" s="228"/>
       <c r="C168" s="241"/>
@@ -27888,7 +27901,7 @@
       <c r="J168" s="243"/>
       <c r="K168" s="243"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="240"/>
       <c r="B169" s="228"/>
       <c r="C169" s="241"/>
@@ -27901,7 +27914,7 @@
       <c r="J169" s="243"/>
       <c r="K169" s="243"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="240"/>
       <c r="B170" s="228"/>
       <c r="C170" s="241"/>
@@ -27914,7 +27927,7 @@
       <c r="J170" s="243"/>
       <c r="K170" s="243"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="240"/>
       <c r="B171" s="228"/>
       <c r="C171" s="241"/>
@@ -27927,7 +27940,7 @@
       <c r="J171" s="243"/>
       <c r="K171" s="243"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="240"/>
       <c r="B172" s="228"/>
       <c r="C172" s="241"/>
@@ -27940,7 +27953,7 @@
       <c r="J172" s="243"/>
       <c r="K172" s="243"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="240"/>
       <c r="B173" s="228"/>
       <c r="C173" s="241"/>
@@ -27953,7 +27966,7 @@
       <c r="J173" s="243"/>
       <c r="K173" s="243"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="240"/>
       <c r="B174" s="228"/>
       <c r="C174" s="241"/>
@@ -27966,7 +27979,7 @@
       <c r="J174" s="243"/>
       <c r="K174" s="243"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="240"/>
       <c r="B175" s="228"/>
       <c r="C175" s="241"/>
@@ -27979,7 +27992,7 @@
       <c r="J175" s="243"/>
       <c r="K175" s="243"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="240"/>
       <c r="B176" s="228"/>
       <c r="C176" s="241"/>
@@ -27992,7 +28005,7 @@
       <c r="J176" s="243"/>
       <c r="K176" s="243"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="240"/>
       <c r="B177" s="228"/>
       <c r="C177" s="241"/>
@@ -28005,7 +28018,7 @@
       <c r="J177" s="243"/>
       <c r="K177" s="243"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="240"/>
       <c r="B178" s="228"/>
       <c r="C178" s="241"/>
@@ -28018,7 +28031,7 @@
       <c r="J178" s="243"/>
       <c r="K178" s="243"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="240"/>
       <c r="B179" s="228"/>
       <c r="C179" s="241"/>
@@ -28031,7 +28044,7 @@
       <c r="J179" s="243"/>
       <c r="K179" s="243"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="240"/>
       <c r="B180" s="228"/>
       <c r="C180" s="241"/>
@@ -28044,7 +28057,7 @@
       <c r="J180" s="243"/>
       <c r="K180" s="243"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="240"/>
       <c r="B181" s="228"/>
       <c r="C181" s="241"/>
@@ -28057,7 +28070,7 @@
       <c r="J181" s="243"/>
       <c r="K181" s="243"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="240"/>
       <c r="B182" s="228"/>
       <c r="C182" s="241"/>
@@ -28070,7 +28083,7 @@
       <c r="J182" s="243"/>
       <c r="K182" s="243"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="240"/>
       <c r="B183" s="228"/>
       <c r="C183" s="241"/>
@@ -28083,7 +28096,7 @@
       <c r="J183" s="243"/>
       <c r="K183" s="243"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="240"/>
       <c r="B184" s="228"/>
       <c r="C184" s="241"/>
@@ -28096,7 +28109,7 @@
       <c r="J184" s="243"/>
       <c r="K184" s="243"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="240"/>
       <c r="B185" s="228"/>
       <c r="C185" s="241"/>
@@ -28111,6 +28124,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A60:D60"/>
     <mergeCell ref="A88:J88"/>
     <mergeCell ref="A89:J89"/>
     <mergeCell ref="B5:B7"/>
@@ -28127,13 +28147,6 @@
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A78:D78"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A60:D60"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.74803149606299213" bottom="0.55118110236220474" header="0.51181102362204722" footer="0.11811023622047245"/>
@@ -28147,14 +28160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView showGridLines="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="B56" colorId="8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView showGridLines="0" defaultGridColor="0" view="pageBreakPreview" topLeftCell="D79" colorId="8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="189" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" style="190" customWidth="1"/>
@@ -28614,12 +28627,12 @@
     <col min="16139" max="16384" width="9.140625" style="190"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="363" customFormat="1" ht="15">
-      <c r="A1" s="511" t="s">
+    <row r="1" spans="1:15" s="363" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="537" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="511"/>
-      <c r="C1" s="511"/>
+      <c r="B1" s="537"/>
+      <c r="C1" s="537"/>
       <c r="F1" s="364"/>
       <c r="G1" s="365"/>
       <c r="H1" s="366"/>
@@ -28630,7 +28643,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="363" customFormat="1" ht="15">
+    <row r="2" spans="1:15" s="363" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="369" t="s">
         <v>104</v>
       </c>
@@ -28641,20 +28654,20 @@
       <c r="J2" s="369"/>
       <c r="K2" s="366"/>
     </row>
-    <row r="3" spans="1:15" s="371" customFormat="1" ht="15">
-      <c r="A3" s="512"/>
-      <c r="B3" s="512"/>
-      <c r="C3" s="512"/>
-      <c r="D3" s="512"/>
-      <c r="E3" s="512"/>
-      <c r="F3" s="512"/>
-      <c r="G3" s="512"/>
-      <c r="H3" s="512"/>
-      <c r="I3" s="512"/>
-      <c r="J3" s="512"/>
-      <c r="K3" s="512"/>
-    </row>
-    <row r="4" spans="1:15" s="97" customFormat="1" ht="6.95" customHeight="1">
+    <row r="3" spans="1:15" s="371" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="538"/>
+      <c r="B3" s="538"/>
+      <c r="C3" s="538"/>
+      <c r="D3" s="538"/>
+      <c r="E3" s="538"/>
+      <c r="F3" s="538"/>
+      <c r="G3" s="538"/>
+      <c r="H3" s="538"/>
+      <c r="I3" s="538"/>
+      <c r="J3" s="538"/>
+      <c r="K3" s="538"/>
+    </row>
+    <row r="4" spans="1:15" s="97" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="96"/>
       <c r="B4" s="96"/>
       <c r="C4" s="96"/>
@@ -28665,64 +28678,64 @@
       <c r="J4" s="98"/>
       <c r="K4" s="98"/>
     </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="483" t="s">
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="471" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="546" t="s">
+      <c r="B5" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="547"/>
-      <c r="D5" s="485" t="s">
+      <c r="C5" s="516"/>
+      <c r="D5" s="473" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="485"/>
-      <c r="F5" s="485"/>
-      <c r="G5" s="485"/>
-      <c r="H5" s="486" t="s">
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="G5" s="473"/>
+      <c r="H5" s="474" t="s">
         <v>272</v>
       </c>
-      <c r="I5" s="487"/>
-      <c r="J5" s="487"/>
-      <c r="K5" s="487"/>
-      <c r="L5" s="488"/>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="483"/>
-      <c r="B6" s="548"/>
-      <c r="C6" s="549"/>
-      <c r="D6" s="491" t="s">
+      <c r="I5" s="475"/>
+      <c r="J5" s="475"/>
+      <c r="K5" s="475"/>
+      <c r="L5" s="476"/>
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="471"/>
+      <c r="B6" s="517"/>
+      <c r="C6" s="518"/>
+      <c r="D6" s="479" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="493" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="491" t="s">
+      <c r="E6" s="481" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="479" t="s">
         <v>270</v>
       </c>
-      <c r="G6" s="491" t="s">
+      <c r="G6" s="479" t="s">
         <v>271</v>
       </c>
-      <c r="H6" s="486" t="s">
+      <c r="H6" s="474" t="s">
         <v>265</v>
       </c>
-      <c r="I6" s="488"/>
-      <c r="J6" s="486" t="s">
+      <c r="I6" s="476"/>
+      <c r="J6" s="474" t="s">
         <v>266</v>
       </c>
-      <c r="K6" s="488"/>
-      <c r="L6" s="489" t="s">
+      <c r="K6" s="476"/>
+      <c r="L6" s="477" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="12" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A7" s="483"/>
-      <c r="B7" s="550"/>
-      <c r="C7" s="551"/>
-      <c r="D7" s="492"/>
-      <c r="E7" s="494"/>
-      <c r="F7" s="492"/>
-      <c r="G7" s="492"/>
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="471"/>
+      <c r="B7" s="519"/>
+      <c r="C7" s="520"/>
+      <c r="D7" s="480"/>
+      <c r="E7" s="482"/>
+      <c r="F7" s="480"/>
+      <c r="G7" s="480"/>
       <c r="H7" s="318" t="s">
         <v>273</v>
       </c>
@@ -28735,9 +28748,9 @@
       <c r="K7" s="281" t="s">
         <v>268</v>
       </c>
-      <c r="L7" s="490"/>
-    </row>
-    <row r="8" spans="1:15" s="99" customFormat="1" ht="15" customHeight="1">
+      <c r="L7" s="478"/>
+    </row>
+    <row r="8" spans="1:15" s="99" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="100">
         <v>1</v>
       </c>
@@ -28755,25 +28768,25 @@
       <c r="K8" s="105"/>
       <c r="L8" s="116"/>
     </row>
-    <row r="9" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="9" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="106">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B9" s="531" t="s">
+      <c r="B9" s="529" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="532"/>
-      <c r="D9" s="532"/>
-      <c r="E9" s="532"/>
-      <c r="F9" s="532"/>
-      <c r="G9" s="532"/>
-      <c r="H9" s="533"/>
-      <c r="I9" s="532"/>
-      <c r="J9" s="532"/>
-      <c r="K9" s="534"/>
+      <c r="C9" s="530"/>
+      <c r="D9" s="530"/>
+      <c r="E9" s="530"/>
+      <c r="F9" s="530"/>
+      <c r="G9" s="530"/>
+      <c r="H9" s="531"/>
+      <c r="I9" s="530"/>
+      <c r="J9" s="530"/>
+      <c r="K9" s="532"/>
       <c r="L9" s="116"/>
     </row>
-    <row r="10" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="108" t="s">
         <v>76</v>
       </c>
@@ -28808,7 +28821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="108" t="s">
         <v>77</v>
       </c>
@@ -28848,7 +28861,7 @@
         <v>105847.2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="108" t="s">
         <v>78</v>
       </c>
@@ -28888,7 +28901,7 @@
         <v>62168</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="108" t="s">
         <v>112</v>
       </c>
@@ -28928,7 +28941,7 @@
         <v>50161.500000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="108" t="s">
         <v>114</v>
       </c>
@@ -28968,7 +28981,7 @@
         <v>68039.399999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="108" t="s">
         <v>116</v>
       </c>
@@ -29008,7 +29021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="118">
         <v>1.2</v>
       </c>
@@ -29029,7 +29042,7 @@
       <c r="N16" s="115"/>
       <c r="O16" s="115"/>
     </row>
-    <row r="17" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="106" t="s">
         <v>119</v>
       </c>
@@ -29050,7 +29063,7 @@
       <c r="N17" s="115"/>
       <c r="O17" s="115"/>
     </row>
-    <row r="18" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="108" t="s">
         <v>121</v>
       </c>
@@ -29085,7 +29098,7 @@
       </c>
       <c r="L18" s="114"/>
     </row>
-    <row r="19" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="108" t="s">
         <v>122</v>
       </c>
@@ -29120,7 +29133,7 @@
       </c>
       <c r="L19" s="114"/>
     </row>
-    <row r="20" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="108" t="s">
         <v>123</v>
       </c>
@@ -29163,7 +29176,7 @@
       <c r="N20" s="115"/>
       <c r="O20" s="115"/>
     </row>
-    <row r="21" spans="1:15" s="127" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:15" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="108" t="s">
         <v>124</v>
       </c>
@@ -29206,7 +29219,7 @@
       <c r="N21" s="115"/>
       <c r="O21" s="115"/>
     </row>
-    <row r="22" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="106" t="s">
         <v>125</v>
       </c>
@@ -29227,7 +29240,7 @@
       <c r="N22" s="115"/>
       <c r="O22" s="115"/>
     </row>
-    <row r="23" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="108" t="s">
         <v>127</v>
       </c>
@@ -29270,7 +29283,7 @@
       <c r="N23" s="115"/>
       <c r="O23" s="115"/>
     </row>
-    <row r="24" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="106" t="s">
         <v>128</v>
       </c>
@@ -29291,7 +29304,7 @@
       <c r="N24" s="115"/>
       <c r="O24" s="115"/>
     </row>
-    <row r="25" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="108" t="s">
         <v>130</v>
       </c>
@@ -29334,14 +29347,14 @@
       <c r="N25" s="115"/>
       <c r="O25" s="115"/>
     </row>
-    <row r="26" spans="1:15" s="107" customFormat="1" ht="24" customHeight="1">
+    <row r="26" spans="1:15" s="107" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="133">
         <v>1.3</v>
       </c>
-      <c r="B26" s="535" t="s">
+      <c r="B26" s="533" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="536"/>
+      <c r="C26" s="534"/>
       <c r="D26" s="134">
         <v>1</v>
       </c>
@@ -29377,14 +29390,14 @@
       <c r="N26" s="115"/>
       <c r="O26" s="115"/>
     </row>
-    <row r="27" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="27" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="133">
         <v>1.4</v>
       </c>
-      <c r="B27" s="537" t="s">
+      <c r="B27" s="513" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="538"/>
+      <c r="C27" s="514"/>
       <c r="D27" s="134">
         <v>1</v>
       </c>
@@ -29420,14 +29433,14 @@
       <c r="N27" s="115"/>
       <c r="O27" s="115"/>
     </row>
-    <row r="28" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="135">
         <v>1.5</v>
       </c>
-      <c r="B28" s="535" t="s">
+      <c r="B28" s="533" t="s">
         <v>133</v>
       </c>
-      <c r="C28" s="536"/>
+      <c r="C28" s="534"/>
       <c r="D28" s="136">
         <v>5</v>
       </c>
@@ -29463,14 +29476,14 @@
       <c r="N28" s="115"/>
       <c r="O28" s="115"/>
     </row>
-    <row r="29" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="133">
         <v>1.6</v>
       </c>
-      <c r="B29" s="535" t="s">
+      <c r="B29" s="533" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="536"/>
+      <c r="C29" s="534"/>
       <c r="D29" s="136">
         <v>1</v>
       </c>
@@ -29506,14 +29519,14 @@
       <c r="N29" s="115"/>
       <c r="O29" s="115"/>
     </row>
-    <row r="30" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="30" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="135">
         <v>1.7</v>
       </c>
-      <c r="B30" s="535" t="s">
+      <c r="B30" s="533" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="536"/>
+      <c r="C30" s="534"/>
       <c r="D30" s="136">
         <v>1</v>
       </c>
@@ -29549,14 +29562,14 @@
       <c r="N30" s="115"/>
       <c r="O30" s="115"/>
     </row>
-    <row r="31" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A31" s="539" t="s">
+    <row r="31" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="521" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="540"/>
-      <c r="C31" s="540"/>
-      <c r="D31" s="540"/>
-      <c r="E31" s="541"/>
+      <c r="B31" s="522"/>
+      <c r="C31" s="522"/>
+      <c r="D31" s="522"/>
+      <c r="E31" s="523"/>
       <c r="F31" s="138"/>
       <c r="G31" s="139">
         <f>SUM(G10:G30)</f>
@@ -29580,7 +29593,7 @@
       <c r="N31" s="115"/>
       <c r="O31" s="115"/>
     </row>
-    <row r="32" spans="1:15" s="145" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:15" s="145" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100">
         <v>2</v>
       </c>
@@ -29600,7 +29613,7 @@
       <c r="N32" s="115"/>
       <c r="O32" s="115"/>
     </row>
-    <row r="33" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="146">
         <v>2.1</v>
       </c>
@@ -29620,7 +29633,7 @@
       <c r="N33" s="115"/>
       <c r="O33" s="115"/>
     </row>
-    <row r="34" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="108" t="s">
         <v>137</v>
       </c>
@@ -29665,7 +29678,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="35" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="108" t="s">
         <v>138</v>
       </c>
@@ -29708,7 +29721,7 @@
       <c r="N35" s="115"/>
       <c r="O35" s="115"/>
     </row>
-    <row r="36" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="108" t="s">
         <v>139</v>
       </c>
@@ -29746,7 +29759,7 @@
       <c r="N36" s="115"/>
       <c r="O36" s="115"/>
     </row>
-    <row r="37" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="146">
         <v>2.2000000000000002</v>
       </c>
@@ -29767,7 +29780,7 @@
       <c r="N37" s="115"/>
       <c r="O37" s="115"/>
     </row>
-    <row r="38" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="156" t="s">
         <v>140</v>
       </c>
@@ -29788,7 +29801,7 @@
       <c r="N38" s="115"/>
       <c r="O38" s="115"/>
     </row>
-    <row r="39" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1">
+    <row r="39" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="108" t="s">
         <v>142</v>
       </c>
@@ -29831,7 +29844,7 @@
       <c r="N39" s="115"/>
       <c r="O39" s="115"/>
     </row>
-    <row r="40" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="40" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="156" t="s">
         <v>143</v>
       </c>
@@ -29852,7 +29865,7 @@
       <c r="N40" s="115"/>
       <c r="O40" s="115"/>
     </row>
-    <row r="41" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1">
+    <row r="41" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="108" t="s">
         <v>144</v>
       </c>
@@ -29890,7 +29903,7 @@
       <c r="N41" s="115"/>
       <c r="O41" s="115"/>
     </row>
-    <row r="42" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1">
+    <row r="42" spans="1:17" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="108" t="s">
         <v>145</v>
       </c>
@@ -29934,7 +29947,7 @@
       <c r="N42" s="115"/>
       <c r="O42" s="115"/>
     </row>
-    <row r="43" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1">
+    <row r="43" spans="1:17" s="152" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="108" t="s">
         <v>146</v>
       </c>
@@ -29972,7 +29985,7 @@
       <c r="N43" s="115"/>
       <c r="O43" s="115"/>
     </row>
-    <row r="44" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="44" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="106" t="s">
         <v>147</v>
       </c>
@@ -29993,7 +30006,7 @@
       <c r="N44" s="115"/>
       <c r="O44" s="115"/>
     </row>
-    <row r="45" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="45" spans="1:17" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="108" t="s">
         <v>148</v>
       </c>
@@ -30036,7 +30049,7 @@
       <c r="N45" s="115"/>
       <c r="O45" s="115"/>
     </row>
-    <row r="46" spans="1:17" s="165" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:17" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="160">
         <v>2.2999999999999998</v>
       </c>
@@ -30057,7 +30070,7 @@
       <c r="N46" s="115"/>
       <c r="O46" s="115"/>
     </row>
-    <row r="47" spans="1:17" s="169" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:17" s="169" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="166" t="s">
         <v>150</v>
       </c>
@@ -30103,7 +30116,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="170" customFormat="1" ht="15" customHeight="1">
+    <row r="48" spans="1:17" s="170" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="166" t="s">
         <v>151</v>
       </c>
@@ -30147,7 +30160,7 @@
       <c r="N48" s="115"/>
       <c r="O48" s="115"/>
     </row>
-    <row r="49" spans="1:15" s="170" customFormat="1" ht="15" customHeight="1">
+    <row r="49" spans="1:15" s="170" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="166" t="s">
         <v>152</v>
       </c>
@@ -30186,14 +30199,14 @@
       <c r="N49" s="115"/>
       <c r="O49" s="115"/>
     </row>
-    <row r="50" spans="1:15" s="152" customFormat="1" ht="36.75" customHeight="1">
+    <row r="50" spans="1:15" s="152" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="171">
         <v>2.4</v>
       </c>
-      <c r="B50" s="535" t="s">
+      <c r="B50" s="533" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="536"/>
+      <c r="C50" s="534"/>
       <c r="D50" s="125">
         <v>1</v>
       </c>
@@ -30229,14 +30242,14 @@
       <c r="N50" s="115"/>
       <c r="O50" s="115"/>
     </row>
-    <row r="51" spans="1:15" s="152" customFormat="1" ht="35.25" customHeight="1">
+    <row r="51" spans="1:15" s="152" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="171">
         <v>2.5</v>
       </c>
-      <c r="B51" s="535" t="s">
+      <c r="B51" s="533" t="s">
         <v>154</v>
       </c>
-      <c r="C51" s="536"/>
+      <c r="C51" s="534"/>
       <c r="D51" s="125">
         <v>1</v>
       </c>
@@ -30272,7 +30285,7 @@
       <c r="N51" s="115"/>
       <c r="O51" s="115"/>
     </row>
-    <row r="52" spans="1:15" s="165" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:15" s="165" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="160">
         <v>2.6</v>
       </c>
@@ -30293,14 +30306,14 @@
       <c r="N52" s="115"/>
       <c r="O52" s="115"/>
     </row>
-    <row r="53" spans="1:15" s="169" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1">
+    <row r="53" spans="1:15" s="169" customFormat="1" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="542" t="s">
+      <c r="B53" s="535" t="s">
         <v>157</v>
       </c>
-      <c r="C53" s="543"/>
+      <c r="C53" s="536"/>
       <c r="D53" s="168">
         <v>2</v>
       </c>
@@ -30313,7 +30326,7 @@
       <c r="G53" s="116">
         <v>2479</v>
       </c>
-      <c r="H53" s="320">
+      <c r="H53" s="553">
         <v>1</v>
       </c>
       <c r="I53" s="92">
@@ -30336,14 +30349,14 @@
       <c r="N53" s="115"/>
       <c r="O53" s="115"/>
     </row>
-    <row r="54" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A54" s="539" t="s">
+    <row r="54" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="521" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="540"/>
-      <c r="C54" s="540"/>
-      <c r="D54" s="540"/>
-      <c r="E54" s="541"/>
+      <c r="B54" s="522"/>
+      <c r="C54" s="522"/>
+      <c r="D54" s="522"/>
+      <c r="E54" s="523"/>
       <c r="F54" s="138"/>
       <c r="G54" s="139">
         <f>SUM(G34:G53)</f>
@@ -30367,7 +30380,7 @@
       <c r="N54" s="115"/>
       <c r="O54" s="115"/>
     </row>
-    <row r="55" spans="1:15" s="99" customFormat="1" ht="15" customHeight="1">
+    <row r="55" spans="1:15" s="99" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="100">
         <v>3</v>
       </c>
@@ -30387,28 +30400,28 @@
       <c r="N55" s="115"/>
       <c r="O55" s="115"/>
     </row>
-    <row r="56" spans="1:15" s="172" customFormat="1" ht="45" customHeight="1">
+    <row r="56" spans="1:15" s="172" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="146">
         <v>3.1</v>
       </c>
-      <c r="B56" s="528" t="s">
+      <c r="B56" s="526" t="s">
         <v>159</v>
       </c>
-      <c r="C56" s="529"/>
-      <c r="D56" s="529"/>
-      <c r="E56" s="529"/>
-      <c r="F56" s="529"/>
-      <c r="G56" s="529"/>
-      <c r="H56" s="529"/>
-      <c r="I56" s="529"/>
-      <c r="J56" s="529"/>
-      <c r="K56" s="530"/>
+      <c r="C56" s="527"/>
+      <c r="D56" s="527"/>
+      <c r="E56" s="527"/>
+      <c r="F56" s="527"/>
+      <c r="G56" s="527"/>
+      <c r="H56" s="527"/>
+      <c r="I56" s="527"/>
+      <c r="J56" s="527"/>
+      <c r="K56" s="528"/>
       <c r="L56" s="116"/>
       <c r="M56" s="115"/>
       <c r="N56" s="115"/>
       <c r="O56" s="115"/>
     </row>
-    <row r="57" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="57" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="108" t="s">
         <v>160</v>
       </c>
@@ -30448,7 +30461,7 @@
         <v>133575</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="58" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="108" t="s">
         <v>162</v>
       </c>
@@ -30488,7 +30501,7 @@
         <v>35935.9</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="59" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="108" t="s">
         <v>164</v>
       </c>
@@ -30526,7 +30539,7 @@
       <c r="N59" s="115"/>
       <c r="O59" s="115"/>
     </row>
-    <row r="60" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1">
+    <row r="60" spans="1:15" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="108" t="s">
         <v>165</v>
       </c>
@@ -30566,7 +30579,7 @@
         <v>34788.300000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="61" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="108" t="s">
         <v>166</v>
       </c>
@@ -30604,27 +30617,27 @@
       <c r="N61" s="115"/>
       <c r="O61" s="115"/>
     </row>
-    <row r="62" spans="1:15" s="338" customFormat="1" ht="30.6" customHeight="1">
+    <row r="62" spans="1:15" s="338" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="337">
         <v>3.2</v>
       </c>
-      <c r="B62" s="518" t="s">
+      <c r="B62" s="544" t="s">
         <v>167</v>
       </c>
-      <c r="C62" s="519"/>
-      <c r="D62" s="519"/>
-      <c r="E62" s="519"/>
-      <c r="F62" s="519"/>
-      <c r="G62" s="519"/>
-      <c r="H62" s="519"/>
-      <c r="I62" s="519"/>
-      <c r="J62" s="519"/>
-      <c r="K62" s="520"/>
+      <c r="C62" s="545"/>
+      <c r="D62" s="545"/>
+      <c r="E62" s="545"/>
+      <c r="F62" s="545"/>
+      <c r="G62" s="545"/>
+      <c r="H62" s="545"/>
+      <c r="I62" s="545"/>
+      <c r="J62" s="545"/>
+      <c r="K62" s="546"/>
       <c r="M62" s="339"/>
       <c r="N62" s="339"/>
       <c r="O62" s="339"/>
     </row>
-    <row r="63" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="63" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="340" t="s">
         <v>168</v>
       </c>
@@ -30662,7 +30675,7 @@
       <c r="N63" s="339"/>
       <c r="O63" s="339"/>
     </row>
-    <row r="64" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="64" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="340" t="s">
         <v>169</v>
       </c>
@@ -30682,7 +30695,7 @@
       <c r="G64" s="332">
         <v>413</v>
       </c>
-      <c r="H64" s="320">
+      <c r="H64" s="553">
         <v>15</v>
       </c>
       <c r="I64" s="320">
@@ -30705,7 +30718,7 @@
       <c r="N64" s="339"/>
       <c r="O64" s="339"/>
     </row>
-    <row r="65" spans="1:15" s="339" customFormat="1" ht="15" customHeight="1">
+    <row r="65" spans="1:15" s="339" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="340" t="s">
         <v>170</v>
       </c>
@@ -30745,28 +30758,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="338" customFormat="1" ht="15" customHeight="1">
+    <row r="66" spans="1:15" s="338" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="337">
         <v>3.3</v>
       </c>
-      <c r="B66" s="518" t="s">
+      <c r="B66" s="544" t="s">
         <v>171</v>
       </c>
-      <c r="C66" s="519"/>
-      <c r="D66" s="519"/>
-      <c r="E66" s="519"/>
-      <c r="F66" s="519"/>
-      <c r="G66" s="519"/>
-      <c r="H66" s="519"/>
-      <c r="I66" s="519"/>
-      <c r="J66" s="519"/>
-      <c r="K66" s="520"/>
+      <c r="C66" s="545"/>
+      <c r="D66" s="545"/>
+      <c r="E66" s="545"/>
+      <c r="F66" s="545"/>
+      <c r="G66" s="545"/>
+      <c r="H66" s="545"/>
+      <c r="I66" s="545"/>
+      <c r="J66" s="545"/>
+      <c r="K66" s="546"/>
       <c r="L66" s="332"/>
       <c r="M66" s="339"/>
       <c r="N66" s="339"/>
       <c r="O66" s="339"/>
     </row>
-    <row r="67" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="67" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="343" t="s">
         <v>172</v>
       </c>
@@ -30789,7 +30802,7 @@
       <c r="N67" s="339"/>
       <c r="O67" s="339"/>
     </row>
-    <row r="68" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="68" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="349" t="s">
         <v>175</v>
       </c>
@@ -30809,7 +30822,7 @@
       <c r="G68" s="332">
         <v>826</v>
       </c>
-      <c r="H68" s="320">
+      <c r="H68" s="553">
         <v>3</v>
       </c>
       <c r="I68" s="320">
@@ -30832,7 +30845,7 @@
       <c r="N68" s="339"/>
       <c r="O68" s="339"/>
     </row>
-    <row r="69" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="343" t="s">
         <v>176</v>
       </c>
@@ -30853,7 +30866,7 @@
       <c r="N69" s="339"/>
       <c r="O69" s="339"/>
     </row>
-    <row r="70" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="349" t="s">
         <v>178</v>
       </c>
@@ -30896,7 +30909,7 @@
       <c r="N70" s="339"/>
       <c r="O70" s="339"/>
     </row>
-    <row r="71" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="343" t="s">
         <v>179</v>
       </c>
@@ -30917,7 +30930,7 @@
       <c r="N71" s="339"/>
       <c r="O71" s="339"/>
     </row>
-    <row r="72" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="349" t="s">
         <v>181</v>
       </c>
@@ -30960,14 +30973,14 @@
       <c r="N72" s="339"/>
       <c r="O72" s="339"/>
     </row>
-    <row r="73" spans="1:15" s="341" customFormat="1" ht="25.5" customHeight="1">
+    <row r="73" spans="1:15" s="341" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="353">
         <v>3.4</v>
       </c>
-      <c r="B73" s="521" t="s">
+      <c r="B73" s="547" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="522"/>
+      <c r="C73" s="548"/>
       <c r="D73" s="351">
         <v>1</v>
       </c>
@@ -31001,14 +31014,14 @@
       <c r="N73" s="339"/>
       <c r="O73" s="339"/>
     </row>
-    <row r="74" spans="1:15" s="341" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="74" spans="1:15" s="341" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="353">
         <v>3.5</v>
       </c>
-      <c r="B74" s="521" t="s">
+      <c r="B74" s="547" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="522"/>
+      <c r="C74" s="548"/>
       <c r="D74" s="351">
         <v>1</v>
       </c>
@@ -31042,14 +31055,14 @@
       <c r="N74" s="339"/>
       <c r="O74" s="339"/>
     </row>
-    <row r="75" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A75" s="523" t="s">
+    <row r="75" spans="1:15" s="341" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="524"/>
-      <c r="C75" s="524"/>
-      <c r="D75" s="524"/>
-      <c r="E75" s="525"/>
+      <c r="B75" s="550"/>
+      <c r="C75" s="550"/>
+      <c r="D75" s="550"/>
+      <c r="E75" s="551"/>
       <c r="F75" s="324"/>
       <c r="G75" s="354">
         <f>SUM(G57:G74)</f>
@@ -31073,7 +31086,7 @@
       <c r="N75" s="339"/>
       <c r="O75" s="339"/>
     </row>
-    <row r="76" spans="1:15" s="341" customFormat="1" ht="14.45" customHeight="1">
+    <row r="76" spans="1:15" s="341" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="356">
         <v>4</v>
       </c>
@@ -31093,14 +31106,14 @@
       <c r="N76" s="339"/>
       <c r="O76" s="339"/>
     </row>
-    <row r="77" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="77" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="174">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B77" s="516" t="s">
+      <c r="B77" s="542" t="s">
         <v>185</v>
       </c>
-      <c r="C77" s="517"/>
+      <c r="C77" s="543"/>
       <c r="D77" s="175">
         <v>3</v>
       </c>
@@ -31134,14 +31147,14 @@
       <c r="N77" s="115"/>
       <c r="O77" s="115"/>
     </row>
-    <row r="78" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="78" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="174">
         <v>4.2</v>
       </c>
-      <c r="B78" s="516" t="s">
+      <c r="B78" s="542" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="517"/>
+      <c r="C78" s="543"/>
       <c r="D78" s="175">
         <v>3</v>
       </c>
@@ -31175,14 +31188,14 @@
       <c r="N78" s="115"/>
       <c r="O78" s="115"/>
     </row>
-    <row r="79" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="79" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="174">
         <v>4.3</v>
       </c>
-      <c r="B79" s="516" t="s">
+      <c r="B79" s="542" t="s">
         <v>187</v>
       </c>
-      <c r="C79" s="517"/>
+      <c r="C79" s="543"/>
       <c r="D79" s="175">
         <v>3</v>
       </c>
@@ -31216,14 +31229,14 @@
       <c r="N79" s="115"/>
       <c r="O79" s="115"/>
     </row>
-    <row r="80" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="80" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="174">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B80" s="516" t="s">
+      <c r="B80" s="542" t="s">
         <v>188</v>
       </c>
-      <c r="C80" s="517"/>
+      <c r="C80" s="543"/>
       <c r="D80" s="175">
         <v>1</v>
       </c>
@@ -31257,14 +31270,14 @@
       <c r="N80" s="115"/>
       <c r="O80" s="115"/>
     </row>
-    <row r="81" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="81" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="174">
         <v>4.5</v>
       </c>
-      <c r="B81" s="516" t="s">
+      <c r="B81" s="542" t="s">
         <v>189</v>
       </c>
-      <c r="C81" s="517"/>
+      <c r="C81" s="543"/>
       <c r="D81" s="175">
         <v>3</v>
       </c>
@@ -31298,7 +31311,7 @@
       <c r="N81" s="115"/>
       <c r="O81" s="115"/>
     </row>
-    <row r="82" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="82" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="174">
         <v>4.5999999999999996</v>
       </c>
@@ -31339,7 +31352,7 @@
       <c r="N82" s="115"/>
       <c r="O82" s="115"/>
     </row>
-    <row r="83" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="83" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="174">
         <v>4.7</v>
       </c>
@@ -31380,14 +31393,14 @@
       <c r="N83" s="115"/>
       <c r="O83" s="115"/>
     </row>
-    <row r="84" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1">
+    <row r="84" spans="1:15" s="107" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="174">
         <v>4.8</v>
       </c>
-      <c r="B84" s="537" t="s">
+      <c r="B84" s="513" t="s">
         <v>192</v>
       </c>
-      <c r="C84" s="538"/>
+      <c r="C84" s="514"/>
       <c r="D84" s="178">
         <v>1</v>
       </c>
@@ -31421,14 +31434,14 @@
       <c r="N84" s="115"/>
       <c r="O84" s="115"/>
     </row>
-    <row r="85" spans="1:15" s="152" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+    <row r="85" spans="1:15" s="152" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="174">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B85" s="516" t="s">
+      <c r="B85" s="542" t="s">
         <v>193</v>
       </c>
-      <c r="C85" s="517"/>
+      <c r="C85" s="543"/>
       <c r="D85" s="175">
         <v>3</v>
       </c>
@@ -31462,14 +31475,14 @@
       <c r="N85" s="115"/>
       <c r="O85" s="115"/>
     </row>
-    <row r="86" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A86" s="539" t="s">
+    <row r="86" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="521" t="s">
         <v>13</v>
       </c>
-      <c r="B86" s="540"/>
-      <c r="C86" s="540"/>
-      <c r="D86" s="540"/>
-      <c r="E86" s="541"/>
+      <c r="B86" s="522"/>
+      <c r="C86" s="522"/>
+      <c r="D86" s="522"/>
+      <c r="E86" s="523"/>
       <c r="F86" s="138"/>
       <c r="G86" s="139">
         <f>SUM(G77:G85)</f>
@@ -31493,7 +31506,7 @@
       <c r="N86" s="115"/>
       <c r="O86" s="115"/>
     </row>
-    <row r="87" spans="1:15" s="99" customFormat="1" ht="15" customHeight="1">
+    <row r="87" spans="1:15" s="99" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="180">
         <v>5</v>
       </c>
@@ -31513,7 +31526,7 @@
       <c r="N87" s="115"/>
       <c r="O87" s="115"/>
     </row>
-    <row r="88" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="88" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="185">
         <v>5.0999999999999996</v>
       </c>
@@ -31556,7 +31569,7 @@
       <c r="N88" s="115"/>
       <c r="O88" s="115"/>
     </row>
-    <row r="89" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="89" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="185">
         <v>5.2</v>
       </c>
@@ -31599,7 +31612,7 @@
       <c r="N89" s="115"/>
       <c r="O89" s="115"/>
     </row>
-    <row r="90" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1">
+    <row r="90" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="185">
         <v>5.3</v>
       </c>
@@ -31640,14 +31653,14 @@
       <c r="N90" s="115"/>
       <c r="O90" s="115"/>
     </row>
-    <row r="91" spans="1:15" s="107" customFormat="1" ht="25.35" customHeight="1">
+    <row r="91" spans="1:15" s="107" customFormat="1" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="185">
         <v>5.4</v>
       </c>
-      <c r="B91" s="526" t="s">
+      <c r="B91" s="524" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="527"/>
+      <c r="C91" s="525"/>
       <c r="D91" s="173">
         <v>1</v>
       </c>
@@ -31681,14 +31694,14 @@
       <c r="N91" s="115"/>
       <c r="O91" s="115"/>
     </row>
-    <row r="92" spans="1:15" s="107" customFormat="1" ht="25.35" customHeight="1" thickBot="1">
+    <row r="92" spans="1:15" s="107" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="185">
         <v>5.5</v>
       </c>
-      <c r="B92" s="526" t="s">
+      <c r="B92" s="524" t="s">
         <v>196</v>
       </c>
-      <c r="C92" s="527"/>
+      <c r="C92" s="525"/>
       <c r="D92" s="173">
         <v>1</v>
       </c>
@@ -31724,14 +31737,14 @@
       <c r="N92" s="115"/>
       <c r="O92" s="115"/>
     </row>
-    <row r="93" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A93" s="513" t="s">
+    <row r="93" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="539" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="514"/>
-      <c r="C93" s="514"/>
-      <c r="D93" s="514"/>
-      <c r="E93" s="515"/>
+      <c r="B93" s="540"/>
+      <c r="C93" s="540"/>
+      <c r="D93" s="540"/>
+      <c r="E93" s="541"/>
       <c r="F93" s="188"/>
       <c r="G93" s="139"/>
       <c r="H93" s="376"/>
@@ -31752,14 +31765,14 @@
       <c r="N93" s="115"/>
       <c r="O93" s="115"/>
     </row>
-    <row r="94" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A94" s="513" t="s">
+    <row r="94" spans="1:15" s="107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="539" t="s">
         <v>102</v>
       </c>
-      <c r="B94" s="514"/>
-      <c r="C94" s="514"/>
-      <c r="D94" s="514"/>
-      <c r="E94" s="515"/>
+      <c r="B94" s="540"/>
+      <c r="C94" s="540"/>
+      <c r="D94" s="540"/>
+      <c r="E94" s="541"/>
       <c r="F94" s="188"/>
       <c r="G94" s="139"/>
       <c r="H94" s="376"/>
@@ -31777,49 +31790,77 @@
         <v>1257873.2999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="13.5" thickBot="1">
-      <c r="A95" s="504" t="s">
+    <row r="95" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="498" t="s">
         <v>280</v>
       </c>
-      <c r="B95" s="505"/>
-      <c r="C95" s="505"/>
-      <c r="D95" s="505"/>
-      <c r="E95" s="505"/>
-      <c r="F95" s="505"/>
-      <c r="G95" s="505"/>
-      <c r="H95" s="505"/>
-      <c r="I95" s="505"/>
-      <c r="J95" s="505"/>
-      <c r="K95" s="544"/>
+      <c r="B95" s="499"/>
+      <c r="C95" s="499"/>
+      <c r="D95" s="499"/>
+      <c r="E95" s="499"/>
+      <c r="F95" s="499"/>
+      <c r="G95" s="499"/>
+      <c r="H95" s="499"/>
+      <c r="I95" s="499"/>
+      <c r="J95" s="499"/>
+      <c r="K95" s="511"/>
       <c r="L95" s="286">
         <f>ROUND(L96-L94,0)</f>
         <v>116476</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A96" s="481" t="s">
+    <row r="96" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="469" t="s">
         <v>281</v>
       </c>
-      <c r="B96" s="482"/>
-      <c r="C96" s="482"/>
-      <c r="D96" s="482"/>
-      <c r="E96" s="482"/>
-      <c r="F96" s="482"/>
-      <c r="G96" s="482"/>
-      <c r="H96" s="482"/>
-      <c r="I96" s="482"/>
-      <c r="J96" s="482"/>
-      <c r="K96" s="545"/>
+      <c r="B96" s="470"/>
+      <c r="C96" s="470"/>
+      <c r="D96" s="470"/>
+      <c r="E96" s="470"/>
+      <c r="F96" s="470"/>
+      <c r="G96" s="470"/>
+      <c r="H96" s="470"/>
+      <c r="I96" s="470"/>
+      <c r="J96" s="470"/>
+      <c r="K96" s="512"/>
       <c r="L96" s="287">
         <f>ROUND(L94/0.91525,0)</f>
         <v>1374349</v>
       </c>
     </row>
-    <row r="100" spans="11:11">
+    <row r="100" spans="11:11" x14ac:dyDescent="0.2">
       <c r="K100" s="285"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A93:E93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B62:K62"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B56:K56"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="A95:K95"/>
     <mergeCell ref="A96:K96"/>
     <mergeCell ref="B84:C84"/>
@@ -31836,34 +31877,6 @@
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="A54:E54"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A93:E93"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B62:K62"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.74803149606299213" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.15748031496062992"/>
